--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\guess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4343200A-5D8A-4425-A05E-6C5159DC64F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80163A58-4C57-417C-9436-0E23E92D2FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="431">
   <si>
     <t>Source</t>
   </si>
@@ -885,12 +885,6 @@
     <t>Straße</t>
   </si>
   <si>
-    <t>Rose</t>
-  </si>
-  <si>
-    <t>Dorne</t>
-  </si>
-  <si>
     <t>Schauspielerin</t>
   </si>
   <si>
@@ -1131,12 +1125,6 @@
     <t>Jewel</t>
   </si>
   <si>
-    <t>Chimney</t>
-  </si>
-  <si>
-    <t>Brick</t>
-  </si>
-  <si>
     <t>Edge</t>
   </si>
   <si>
@@ -1173,9 +1161,6 @@
     <t>Street</t>
   </si>
   <si>
-    <t>Thorne</t>
-  </si>
-  <si>
     <t>Actress</t>
   </si>
   <si>
@@ -1275,9 +1260,6 @@
     <t>Park</t>
   </si>
   <si>
-    <t>Baum</t>
-  </si>
-  <si>
     <t>Pfote</t>
   </si>
   <si>
@@ -1290,9 +1272,6 @@
     <t>Dog</t>
   </si>
   <si>
-    <t>Tree</t>
-  </si>
-  <si>
     <t>Paw</t>
   </si>
   <si>
@@ -1300,6 +1279,57 @@
   </si>
   <si>
     <t>Window</t>
+  </si>
+  <si>
+    <t>new- SWOW</t>
+  </si>
+  <si>
+    <t>Surfen</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>Surfing</t>
+  </si>
+  <si>
+    <t>Strand</t>
+  </si>
+  <si>
+    <t>Kastanien</t>
+  </si>
+  <si>
+    <t>Rösten</t>
+  </si>
+  <si>
+    <t>too close to other cue Rauch</t>
+  </si>
+  <si>
+    <t>new SWOW</t>
+  </si>
+  <si>
+    <t>chestnut</t>
+  </si>
+  <si>
+    <t>roast</t>
+  </si>
+  <si>
+    <t>Spielplatz</t>
+  </si>
+  <si>
+    <t>Playground</t>
+  </si>
+  <si>
+    <t>SWOW</t>
+  </si>
+  <si>
+    <t>Nudeln</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Pasta</t>
   </si>
 </sst>
 </file>
@@ -1892,11 +1922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1954,7 +1984,7 @@
         <v>146</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -2826,7 +2856,7 @@
         <v>119</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>140</v>
@@ -2896,7 +2926,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>193</v>
@@ -2911,10 +2941,10 @@
         <v>193</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2925,7 +2955,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -2937,10 +2967,10 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2952,7 +2982,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>198</v>
@@ -2964,10 +2994,10 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2979,7 +3009,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>200</v>
@@ -2991,10 +3021,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3006,7 +3036,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>202</v>
@@ -3018,7 +3048,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>203</v>
@@ -3033,7 +3063,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>204</v>
@@ -3045,10 +3075,10 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3060,7 +3090,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>206</v>
@@ -3072,10 +3102,10 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3087,7 +3117,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>208</v>
@@ -3102,7 +3132,7 @@
         <v>208</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3114,7 +3144,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>210</v>
@@ -3126,10 +3156,10 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3141,7 +3171,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>214</v>
@@ -3156,7 +3186,7 @@
         <v>214</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3168,7 +3198,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>216</v>
@@ -3180,10 +3210,10 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3195,7 +3225,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>218</v>
@@ -3222,7 +3252,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>220</v>
@@ -3234,10 +3264,10 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3249,7 +3279,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>222</v>
@@ -3261,7 +3291,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>223</v>
@@ -3276,7 +3306,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>224</v>
@@ -3288,10 +3318,10 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -3303,7 +3333,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>226</v>
@@ -3318,7 +3348,7 @@
         <v>127</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -3330,7 +3360,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>230</v>
@@ -3342,7 +3372,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>231</v>
@@ -3357,7 +3387,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>232</v>
@@ -3384,7 +3414,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>234</v>
@@ -3396,10 +3426,10 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3411,7 +3441,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>236</v>
@@ -3423,10 +3453,10 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3438,7 +3468,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>238</v>
@@ -3450,10 +3480,10 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -3465,7 +3495,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>240</v>
@@ -3480,7 +3510,7 @@
         <v>240</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -3492,7 +3522,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>244</v>
@@ -3504,10 +3534,10 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -3519,7 +3549,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>246</v>
@@ -3531,10 +3561,10 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -3546,7 +3576,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>248</v>
@@ -3558,10 +3588,10 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -3573,7 +3603,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>250</v>
@@ -3585,10 +3615,10 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3600,7 +3630,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>252</v>
@@ -3612,10 +3642,10 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3627,7 +3657,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>254</v>
@@ -3642,7 +3672,7 @@
         <v>254</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -3654,7 +3684,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>256</v>
@@ -3666,10 +3696,10 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -3681,7 +3711,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>258</v>
@@ -3693,7 +3723,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>259</v>
@@ -3708,7 +3738,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>260</v>
@@ -3720,10 +3750,10 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -3735,7 +3765,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>262</v>
@@ -3747,10 +3777,10 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3762,7 +3792,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>264</v>
@@ -3774,10 +3804,10 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3789,7 +3819,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>266</v>
@@ -3801,7 +3831,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>267</v>
@@ -3816,34 +3846,32 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="6" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>268</v>
+        <v>419</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>269</v>
+        <v>420</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="4" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="4">
-        <v>5.1999999999999998E-2</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>270</v>
@@ -3855,10 +3883,10 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3870,7 +3898,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>272</v>
@@ -3882,10 +3910,10 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3897,7 +3925,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>274</v>
@@ -3909,10 +3937,10 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3924,7 +3952,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>276</v>
@@ -3936,10 +3964,10 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3951,7 +3979,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>278</v>
@@ -3963,10 +3991,10 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3978,7 +4006,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>280</v>
@@ -3990,10 +4018,10 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -4005,22 +4033,22 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="6" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>282</v>
+        <v>415</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="4" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -4032,22 +4060,22 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -4059,22 +4087,22 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -4086,19 +4114,19 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>261</v>
@@ -4113,22 +4141,22 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -4140,22 +4168,22 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -4167,22 +4195,22 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -4194,22 +4222,22 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -4221,22 +4249,22 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -4248,22 +4276,22 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -4275,22 +4303,22 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -4302,22 +4330,22 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -4329,22 +4357,22 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -4356,22 +4384,22 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -4381,22 +4409,22 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -4406,36 +4434,53 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C82" t="s">
+        <v>407</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C82" t="s">
-        <v>413</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="H82" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B83" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C83" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H83" t="s">
-        <v>417</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A84" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B84" t="s">
+        <v>428</v>
+      </c>
+      <c r="C84" t="s">
+        <v>429</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -4444,23 +4489,23 @@
     <cfRule type="duplicateValues" dxfId="23" priority="7"/>
     <cfRule type="duplicateValues" dxfId="22" priority="8"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B1:F1048576">
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F79">
+    <cfRule type="duplicateValues" dxfId="20" priority="27"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F79">
-    <cfRule type="duplicateValues" dxfId="17" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:F1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4469,10 +4514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74498068-5777-473E-A8DC-D64FC3346EE7}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4485,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4496,7 +4541,7 @@
         <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -4504,18 +4549,18 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -4540,6 +4585,17 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4547,41 +4603,41 @@
     <cfRule type="duplicateValues" dxfId="15" priority="14"/>
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  <conditionalFormatting sqref="A5:B5">
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:B7">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B5">
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CEE94E-0A3A-40FF-BA1F-C4B79F299D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730AEA5D-4B2D-4009-94D7-F02078F1334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="575">
   <si>
     <t>Source</t>
   </si>
@@ -329,9 +329,6 @@
     <t>Vampir</t>
   </si>
   <si>
-    <t>Geist</t>
-  </si>
-  <si>
     <t>Blut</t>
   </si>
   <si>
@@ -614,18 +611,9 @@
     <t>Monument</t>
   </si>
   <si>
-    <t>Tänzer</t>
-  </si>
-  <si>
-    <t>Musik</t>
-  </si>
-  <si>
     <t>Teleskop</t>
   </si>
   <si>
-    <t>Mikroskop</t>
-  </si>
-  <si>
     <t>Teller</t>
   </si>
   <si>
@@ -686,48 +674,24 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>Kamin</t>
-  </si>
-  <si>
-    <t>Ziegel</t>
-  </si>
-  <si>
     <t>Kante</t>
   </si>
   <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>Junge</t>
-  </si>
-  <si>
     <t>Kino</t>
   </si>
   <si>
     <t>Theater</t>
   </si>
   <si>
-    <t>Klebstoff</t>
-  </si>
-  <si>
     <t>Papier</t>
   </si>
   <si>
     <t>Rose</t>
   </si>
   <si>
-    <t>Schauspielerin</t>
-  </si>
-  <si>
-    <t>Frau</t>
-  </si>
-  <si>
     <t>Schnorchel</t>
   </si>
   <si>
-    <t>Flossen</t>
-  </si>
-  <si>
     <t>Schuh</t>
   </si>
   <si>
@@ -749,24 +713,12 @@
     <t>Biss</t>
   </si>
   <si>
-    <t>Wasserfall</t>
-  </si>
-  <si>
-    <t>Felsen</t>
-  </si>
-  <si>
     <t>Wein</t>
   </si>
   <si>
-    <t>Abendessen</t>
-  </si>
-  <si>
     <t>Zahnpasta</t>
   </si>
   <si>
-    <t>Minze</t>
-  </si>
-  <si>
     <t>Zimt</t>
   </si>
   <si>
@@ -878,12 +830,6 @@
     <t>Jewel</t>
   </si>
   <si>
-    <t>Chimney</t>
-  </si>
-  <si>
-    <t>Brick</t>
-  </si>
-  <si>
     <t>Child</t>
   </si>
   <si>
@@ -896,12 +842,6 @@
     <t>Theatre</t>
   </si>
   <si>
-    <t>Glue</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
     <t>Thorne</t>
   </si>
   <si>
@@ -926,12 +866,6 @@
     <t>Leaves</t>
   </si>
   <si>
-    <t>Waterfall</t>
-  </si>
-  <si>
-    <t>Rocks</t>
-  </si>
-  <si>
     <t>Wine</t>
   </si>
   <si>
@@ -1262,9 +1196,6 @@
     <t>Rebe</t>
   </si>
   <si>
-    <t>Kaktus</t>
-  </si>
-  <si>
     <t>cactus</t>
   </si>
   <si>
@@ -1289,9 +1220,6 @@
     <t>street</t>
   </si>
   <si>
-    <t>Stift</t>
-  </si>
-  <si>
     <t>Keller</t>
   </si>
   <si>
@@ -1376,9 +1304,6 @@
     <t>Kälte</t>
   </si>
   <si>
-    <t>Snow</t>
-  </si>
-  <si>
     <t>Schaf</t>
   </si>
   <si>
@@ -1589,12 +1514,6 @@
     <t>Krone</t>
   </si>
   <si>
-    <t>Diamont</t>
-  </si>
-  <si>
-    <t>Wort</t>
-  </si>
-  <si>
     <t>Alligator</t>
   </si>
   <si>
@@ -1604,9 +1523,6 @@
     <t>Lava</t>
   </si>
   <si>
-    <t>Blüte</t>
-  </si>
-  <si>
     <t>Kabine</t>
   </si>
   <si>
@@ -1616,7 +1532,238 @@
     <t>Dorn</t>
   </si>
   <si>
-    <t>Aroma</t>
+    <t>Popcorn</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Bett</t>
+  </si>
+  <si>
+    <t>Wohnung</t>
+  </si>
+  <si>
+    <t>Diamant</t>
+  </si>
+  <si>
+    <t>Postkarte</t>
+  </si>
+  <si>
+    <t>Brief</t>
+  </si>
+  <si>
+    <t>Urlaub</t>
+  </si>
+  <si>
+    <t>Nachricht</t>
+  </si>
+  <si>
+    <t>Datei</t>
+  </si>
+  <si>
+    <t>Benzin</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>Tür</t>
+  </si>
+  <si>
+    <t>Schloss</t>
+  </si>
+  <si>
+    <t>Schwimmen</t>
+  </si>
+  <si>
+    <t>Fisch</t>
+  </si>
+  <si>
+    <t>Blase</t>
+  </si>
+  <si>
+    <t>Fuß</t>
+  </si>
+  <si>
+    <t>Schnürsenkel</t>
+  </si>
+  <si>
+    <t>Marmor</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Kamera</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>Erinnerung</t>
+  </si>
+  <si>
+    <t>Sterne</t>
+  </si>
+  <si>
+    <t>Weltraum</t>
+  </si>
+  <si>
+    <t>Himmel</t>
+  </si>
+  <si>
+    <t>Gericht</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>Gel</t>
+  </si>
+  <si>
+    <t>Bürste</t>
+  </si>
+  <si>
+    <t>Gleis</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Lokomotive</t>
+  </si>
+  <si>
+    <t>Schlamm</t>
+  </si>
+  <si>
+    <t>Moor</t>
+  </si>
+  <si>
+    <t>Ausbruch</t>
+  </si>
+  <si>
+    <t>Berg</t>
+  </si>
+  <si>
+    <t>Spitze</t>
+  </si>
+  <si>
+    <t>Hügel</t>
+  </si>
+  <si>
+    <t>Schnee</t>
+  </si>
+  <si>
+    <t>Tal</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Lehrer</t>
+  </si>
+  <si>
+    <t>Universität</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Konzert</t>
+  </si>
+  <si>
+    <t>Leute</t>
+  </si>
+  <si>
+    <t>Journalistin</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Brille</t>
+  </si>
+  <si>
+    <t>Zeitung</t>
+  </si>
+  <si>
+    <t>Kellner</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Tablett</t>
+  </si>
+  <si>
+    <t>Kellnerin</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Baum</t>
+  </si>
+  <si>
+    <t>Zapfen</t>
+  </si>
+  <si>
+    <t>Klee</t>
+  </si>
+  <si>
+    <t>Glück</t>
+  </si>
+  <si>
+    <t>Blatt</t>
+  </si>
+  <si>
+    <t>Feld</t>
+  </si>
+  <si>
+    <t>Trauben</t>
+  </si>
+  <si>
+    <t>Milch</t>
+  </si>
+  <si>
+    <t>Kuh</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Handy</t>
+  </si>
+  <si>
+    <t>Anruf</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Gespräch</t>
+  </si>
+  <si>
+    <t>Oster</t>
+  </si>
+  <si>
+    <t>Hase</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
+  <si>
+    <t>Geruch</t>
   </si>
 </sst>
 </file>
@@ -2395,8 +2542,8 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="C2:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
@@ -2423,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2444,19 +2591,19 @@
         <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="N1" s="2"/>
     </row>
@@ -2465,7 +2612,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
@@ -2486,10 +2633,10 @@
         <v>46</v>
       </c>
       <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
         <v>126</v>
-      </c>
-      <c r="J2" t="s">
-        <v>127</v>
       </c>
       <c r="K2">
         <v>3.1E-2</v>
@@ -2503,34 +2650,34 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>169</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K3" s="1">
         <v>0.03</v>
@@ -2544,34 +2691,34 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="K4" s="1">
         <v>0.02</v>
@@ -2580,27 +2727,27 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2614,7 +2761,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>11</v>
@@ -2635,10 +2782,10 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="K6">
         <v>0.02</v>
@@ -2647,7 +2794,7 @@
         <v>0.18</v>
       </c>
       <c r="M6" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2655,7 +2802,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
@@ -2676,7 +2823,7 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
@@ -2693,34 +2840,34 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2730,31 +2877,31 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="K9" s="1">
         <v>0.04</v>
@@ -2768,28 +2915,28 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2798,22 +2945,22 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>445</v>
+        <v>539</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2827,7 +2974,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>67</v>
@@ -2842,16 +2989,16 @@
         <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="K12" s="1">
         <v>6.6000000000000003E-2</v>
@@ -2868,7 +3015,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>75</v>
@@ -2886,13 +3033,13 @@
         <v>75</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K13" s="1">
         <v>1.4E-2</v>
@@ -2906,24 +3053,28 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2935,31 +3086,31 @@
     <row r="15" spans="1:14">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="K15" s="3">
         <v>0.03</v>
@@ -2976,7 +3127,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>87</v>
@@ -2994,13 +3145,13 @@
         <v>87</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="K16" s="1">
         <v>0.02</v>
@@ -3014,34 +3165,34 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>371</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="K17" s="1">
         <v>0.05</v>
@@ -3056,31 +3207,31 @@
     <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="K18" s="1">
         <v>0.05</v>
@@ -3094,34 +3245,34 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="K19" s="1">
         <v>3.0300000000000001E-2</v>
@@ -3135,34 +3286,34 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="K20" s="1">
         <v>5.0500000000000003E-2</v>
@@ -3176,34 +3327,34 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B21" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="K21" s="3">
         <v>4.1000000000000002E-2</v>
@@ -3218,22 +3369,22 @@
     <row r="22" spans="1:13">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3244,31 +3395,31 @@
     <row r="23" spans="1:13">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -3276,31 +3427,31 @@
     <row r="24" spans="1:13">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -3308,31 +3459,31 @@
     <row r="25" spans="1:13">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -3340,31 +3491,31 @@
     <row r="26" spans="1:13">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3374,7 +3525,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>5</v>
@@ -3395,7 +3546,7 @@
         <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
@@ -3413,19 +3564,19 @@
     <row r="28" spans="1:13">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
@@ -3436,28 +3587,28 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3467,29 +3618,27 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="5" t="s">
-        <v>303</v>
-      </c>
+      <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>238</v>
+        <v>563</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>239</v>
+        <v>565</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>481</v>
+        <v>564</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3500,28 +3649,28 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3532,28 +3681,28 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3564,22 +3713,22 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -3593,22 +3742,22 @@
     <row r="34" spans="1:13">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
@@ -3618,28 +3767,28 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3650,28 +3799,28 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3683,22 +3832,22 @@
     <row r="37" spans="1:13">
       <c r="A37" s="5"/>
       <c r="B37" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="1"/>
@@ -3708,24 +3857,28 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+        <v>497</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="G38" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3739,7 +3892,7 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>79</v>
@@ -3754,16 +3907,16 @@
         <v>82</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="I39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="K39" s="1">
         <v>1.4999999999999999E-2</v>
@@ -3777,24 +3930,28 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -3806,22 +3963,22 @@
     <row r="41" spans="1:13">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="1"/>
@@ -3834,7 +3991,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>59</v>
@@ -3849,16 +4006,16 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
       </c>
       <c r="I42" t="s">
+        <v>140</v>
+      </c>
+      <c r="J42" t="s">
         <v>141</v>
-      </c>
-      <c r="J42" t="s">
-        <v>142</v>
       </c>
       <c r="K42">
         <v>6.2E-2</v>
@@ -3872,28 +4029,28 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3904,28 +4061,28 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>212</v>
+        <v>485</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3936,28 +4093,28 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>347</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>516</v>
+        <v>325</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>501</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3967,26 +4124,24 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="5" t="s">
-        <v>303</v>
-      </c>
+      <c r="A46" s="5"/>
       <c r="B46" t="s">
-        <v>347</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>280</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="3">
@@ -3996,52 +4151,54 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B47" t="s">
-        <v>347</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>286</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="3">
-        <v>5.2999999999999999E-2</v>
-      </c>
+      <c r="K47" s="3"/>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B48" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="E48" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -4052,24 +4209,28 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="E49" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>508</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -4080,24 +4241,28 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B50" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="E50" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>510</v>
+      </c>
       <c r="G50" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -4108,24 +4273,28 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+        <v>513</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>511</v>
+      </c>
       <c r="G51" s="3" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -4136,24 +4305,28 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>515</v>
+      </c>
       <c r="G52" s="3" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -4167,18 +4340,18 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>347</v>
-      </c>
-      <c r="C53" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G53" t="s">
@@ -4191,7 +4364,7 @@
         <v>32</v>
       </c>
       <c r="J53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K53">
         <v>3.5999999999999997E-2</v>
@@ -4208,31 +4381,31 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>347</v>
-      </c>
-      <c r="C54" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="5" t="s">
         <v>94</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="I54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="K54" s="1">
         <v>3.4000000000000002E-2</v>
@@ -4246,24 +4419,28 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B55" t="s">
-        <v>347</v>
-      </c>
-      <c r="C55" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="E55" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>516</v>
+      </c>
       <c r="G55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -4274,21 +4451,25 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s">
-        <v>347</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="G56" s="3" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="1"/>
@@ -4300,24 +4481,28 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B57" t="s">
-        <v>347</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="G57" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -4328,24 +4513,28 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B58" t="s">
-        <v>347</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>526</v>
+      </c>
       <c r="G58" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -4356,24 +4545,28 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B59" t="s">
-        <v>347</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>527</v>
+      </c>
       <c r="G59" s="3" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -4387,18 +4580,18 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>347</v>
-      </c>
-      <c r="C60" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G60" t="s">
@@ -4408,10 +4601,10 @@
         <v>54</v>
       </c>
       <c r="I60" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60" t="s">
         <v>134</v>
-      </c>
-      <c r="J60" t="s">
-        <v>135</v>
       </c>
       <c r="K60">
         <v>7.0000000000000007E-2</v>
@@ -4425,24 +4618,28 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B61" t="s">
-        <v>347</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="G61" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -4454,25 +4651,25 @@
     <row r="62" spans="1:13">
       <c r="A62" s="5"/>
       <c r="B62" t="s">
-        <v>346</v>
-      </c>
-      <c r="C62" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>502</v>
+      <c r="F62" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -4483,18 +4680,18 @@
     </row>
     <row r="63" spans="1:13">
       <c r="B63" t="s">
-        <v>346</v>
-      </c>
-      <c r="C63" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G63" t="s">
@@ -4504,10 +4701,10 @@
         <v>48</v>
       </c>
       <c r="I63" t="s">
+        <v>127</v>
+      </c>
+      <c r="J63" t="s">
         <v>128</v>
-      </c>
-      <c r="J63" t="s">
-        <v>129</v>
       </c>
       <c r="K63">
         <v>1.6E-2</v>
@@ -4522,18 +4719,22 @@
     <row r="64" spans="1:13">
       <c r="A64" s="5"/>
       <c r="B64" t="s">
-        <v>346</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+        <v>324</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>534</v>
+      </c>
       <c r="G64" s="3" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="1"/>
@@ -4544,20 +4745,22 @@
     <row r="65" spans="1:14">
       <c r="A65" s="5"/>
       <c r="B65" t="s">
-        <v>346</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>324</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>535</v>
+      </c>
       <c r="G65" s="3" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="1"/>
@@ -4568,22 +4771,22 @@
     <row r="66" spans="1:14">
       <c r="A66" s="5"/>
       <c r="B66" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>236</v>
+        <v>536</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>296</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="3">
@@ -4593,31 +4796,31 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B67" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1">
@@ -4630,7 +4833,7 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>3</v>
@@ -4651,10 +4854,10 @@
         <v>43</v>
       </c>
       <c r="I68" t="s">
+        <v>122</v>
+      </c>
+      <c r="J68" t="s">
         <v>123</v>
-      </c>
-      <c r="J68" t="s">
-        <v>124</v>
       </c>
       <c r="K68">
         <v>1.9E-2</v>
@@ -4671,7 +4874,7 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>55</v>
@@ -4686,16 +4889,16 @@
         <v>58</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H69" t="s">
         <v>56</v>
       </c>
       <c r="I69" t="s">
+        <v>138</v>
+      </c>
+      <c r="J69" t="s">
         <v>139</v>
-      </c>
-      <c r="J69" t="s">
-        <v>140</v>
       </c>
       <c r="K69">
         <v>1.4E-2</v>
@@ -4712,7 +4915,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>63</v>
@@ -4727,16 +4930,16 @@
         <v>66</v>
       </c>
       <c r="G70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="I70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="K70" s="1">
         <v>1.2999999999999999E-2</v>
@@ -4753,7 +4956,7 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>71</v>
@@ -4768,16 +4971,16 @@
         <v>74</v>
       </c>
       <c r="G71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="I71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="K71" s="1">
         <v>1.2999999999999999E-2</v>
@@ -4792,24 +4995,28 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B72" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>218</v>
+        <v>541</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+        <v>544</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>543</v>
+      </c>
       <c r="G72" s="3" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -4820,24 +5027,28 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B73" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="5" t="s">
+        <v>546</v>
+      </c>
       <c r="G73" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -4848,24 +5059,28 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>309</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>548</v>
+      </c>
       <c r="G74" s="3" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -4876,24 +5091,28 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B75" t="s">
-        <v>309</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>554</v>
+      </c>
       <c r="G75" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -4907,31 +5126,31 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>309</v>
-      </c>
-      <c r="C76" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="F76" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="G76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="K76" s="1">
         <v>1.4E-2</v>
@@ -4946,18 +5165,22 @@
     <row r="77" spans="1:14">
       <c r="A77" s="5"/>
       <c r="B77" t="s">
-        <v>311</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>561</v>
+      </c>
       <c r="G77" s="3" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="1"/>
@@ -4967,24 +5190,28 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B78" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+        <v>494</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>557</v>
+      </c>
       <c r="G78" s="3" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -4998,7 +5225,7 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>83</v>
@@ -5013,16 +5240,16 @@
         <v>86</v>
       </c>
       <c r="G79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="I79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="K79" s="1">
         <v>1.0999999999999999E-2</v>
@@ -5036,21 +5263,25 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B80" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+        <v>495</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="G80" s="3" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1"/>
@@ -5062,26 +5293,28 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B81" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F81" s="1"/>
+        <v>496</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>456</v>
+      </c>
       <c r="G81" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -5208,7 +5441,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B1">
         <v>10</v>
@@ -5220,7 +5453,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -5232,7 +5465,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -5244,7 +5477,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -5256,7 +5489,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -5268,7 +5501,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5280,7 +5513,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5292,7 +5525,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -5304,7 +5537,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -5316,7 +5549,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -5384,212 +5617,212 @@
         <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="G2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="H2" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="L2">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="P2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="G3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="H3" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="L3">
         <v>5.3800000000000001E-2</v>
       </c>
       <c r="P3" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="G4" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="L4">
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="P4" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="L5">
         <v>5.0099999999999999E-2</v>
       </c>
       <c r="P5" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="H6" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="L6">
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="P6" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="G7" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="H7" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="L7">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="P7" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C8" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="H8" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L8">
         <v>5.1299999999999998E-2</v>
       </c>
       <c r="P8" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G9" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="H9" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="L9">
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="P9" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5634,18 +5867,18 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5653,42 +5886,42 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730AEA5D-4B2D-4009-94D7-F02078F1334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1254939-E39F-4FE9-9AB7-58092461DA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="574">
   <si>
     <t>Source</t>
   </si>
@@ -572,9 +572,6 @@
     <t>Mappe</t>
   </si>
   <si>
-    <t>Buch</t>
-  </si>
-  <si>
     <t>Publikum</t>
   </si>
   <si>
@@ -1061,9 +1058,6 @@
     <t>Bart</t>
   </si>
   <si>
-    <t>Schneke</t>
-  </si>
-  <si>
     <t>Schleim</t>
   </si>
   <si>
@@ -1298,9 +1292,6 @@
     <t>Winter</t>
   </si>
   <si>
-    <t>Weiss</t>
-  </si>
-  <si>
     <t>Kälte</t>
   </si>
   <si>
@@ -1463,9 +1454,6 @@
     <t>Humour</t>
   </si>
   <si>
-    <t>Klub</t>
-  </si>
-  <si>
     <t>Gruppe</t>
   </si>
   <si>
@@ -1496,9 +1484,6 @@
     <t>Fahrrad</t>
   </si>
   <si>
-    <t>Haar</t>
-  </si>
-  <si>
     <t>Sand</t>
   </si>
   <si>
@@ -1751,9 +1736,6 @@
     <t>Gespräch</t>
   </si>
   <si>
-    <t>Oster</t>
-  </si>
-  <si>
     <t>Hase</t>
   </si>
   <si>
@@ -1764,6 +1746,21 @@
   </si>
   <si>
     <t>Geruch</t>
+  </si>
+  <si>
+    <t>Weiß</t>
+  </si>
+  <si>
+    <t>Ostern</t>
+  </si>
+  <si>
+    <t>Schnecke</t>
+  </si>
+  <si>
+    <t>Ordner</t>
+  </si>
+  <si>
+    <t>Kappe</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1814,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1848,6 +1845,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1861,7 +1864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1884,6 +1887,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2542,8 +2547,8 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="C2:F81"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
@@ -2570,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2612,7 +2617,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
@@ -2650,10 +2655,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>167</v>
@@ -2662,19 +2667,19 @@
         <v>168</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>132</v>
@@ -2691,10 +2696,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>172</v>
@@ -2703,22 +2708,22 @@
         <v>173</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="J4" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="K4" s="1">
         <v>0.02</v>
@@ -2727,27 +2732,27 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>415</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2761,7 +2766,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>11</v>
@@ -2785,7 +2790,7 @@
         <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K6">
         <v>0.02</v>
@@ -2794,7 +2799,7 @@
         <v>0.18</v>
       </c>
       <c r="M6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2802,7 +2807,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
@@ -2840,34 +2845,34 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="F8" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2877,31 +2882,31 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>99</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K9" s="1">
         <v>0.04</v>
@@ -2915,28 +2920,28 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2945,22 +2950,22 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>419</v>
+        <v>569</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2974,7 +2979,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>67</v>
@@ -3015,7 +3020,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>75</v>
@@ -3053,22 +3058,22 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>570</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>174</v>
@@ -3086,31 +3091,31 @@
     <row r="15" spans="1:14">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="H15" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="K15" s="3">
         <v>0.03</v>
@@ -3127,7 +3132,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>87</v>
@@ -3165,34 +3170,34 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>332</v>
       </c>
       <c r="K17" s="1">
         <v>0.05</v>
@@ -3207,31 +3212,31 @@
     <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="H18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="K18" s="1">
         <v>0.05</v>
@@ -3245,34 +3250,34 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="H19" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="K19" s="1">
         <v>3.0300000000000001E-2</v>
@@ -3286,34 +3291,34 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="H20" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="K20" s="1">
         <v>5.0500000000000003E-2</v>
@@ -3327,34 +3332,34 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="K21" s="3">
         <v>4.1000000000000002E-2</v>
@@ -3369,22 +3374,22 @@
     <row r="22" spans="1:13">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3395,31 +3400,31 @@
     <row r="23" spans="1:13">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -3427,31 +3432,31 @@
     <row r="24" spans="1:13">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F24" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>443</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -3459,31 +3464,31 @@
     <row r="25" spans="1:13">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -3491,31 +3496,31 @@
     <row r="26" spans="1:13">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3525,7 +3530,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>5</v>
@@ -3564,19 +3569,19 @@
     <row r="28" spans="1:13">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
@@ -3587,28 +3592,28 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3620,25 +3625,25 @@
     <row r="30" spans="1:13">
       <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3649,28 +3654,28 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="E31" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3681,28 +3686,28 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3713,22 +3718,22 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>474</v>
+        <v>148</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -3742,22 +3747,22 @@
     <row r="34" spans="1:13">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
@@ -3767,28 +3772,28 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>169</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3799,28 +3804,28 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3832,22 +3837,22 @@
     <row r="37" spans="1:13">
       <c r="A37" s="5"/>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="1"/>
@@ -3857,28 +3862,28 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3892,7 +3897,7 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>79</v>
@@ -3930,28 +3935,28 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -3963,22 +3968,22 @@
     <row r="41" spans="1:13">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>460</v>
+        <v>389</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="1"/>
@@ -3991,7 +3996,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>59</v>
@@ -4029,10 +4034,10 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>165</v>
@@ -4041,16 +4046,16 @@
         <v>166</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -4061,28 +4066,28 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="G44" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -4093,28 +4098,28 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="E45" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -4126,19 +4131,19 @@
     <row r="46" spans="1:13">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -4151,22 +4156,22 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -4177,28 +4182,28 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>177</v>
+      <c r="D48" s="5" t="s">
+        <v>572</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -4209,28 +4214,28 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E49" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -4241,28 +4246,28 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -4273,28 +4278,28 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -4305,28 +4310,28 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C52" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -4340,7 +4345,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>15</v>
@@ -4351,7 +4356,7 @@
       <c r="E53" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="18" t="s">
         <v>33</v>
       </c>
       <c r="G53" t="s">
@@ -4381,7 +4386,7 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>91</v>
@@ -4419,28 +4424,28 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="E55" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -4451,25 +4456,25 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="1"/>
@@ -4481,28 +4486,28 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -4513,28 +4518,28 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="E58" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -4545,28 +4550,28 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -4580,7 +4585,7 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>17</v>
@@ -4618,28 +4623,28 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -4651,25 +4656,25 @@
     <row r="62" spans="1:13">
       <c r="A62" s="5"/>
       <c r="B62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>163</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>164</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -4680,7 +4685,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="B63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>9</v>
@@ -4719,22 +4724,22 @@
     <row r="64" spans="1:13">
       <c r="A64" s="5"/>
       <c r="B64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="1"/>
@@ -4745,22 +4750,22 @@
     <row r="65" spans="1:14">
       <c r="A65" s="5"/>
       <c r="B65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="1"/>
@@ -4771,19 +4776,19 @@
     <row r="66" spans="1:14">
       <c r="A66" s="5"/>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -4796,10 +4801,10 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>160</v>
@@ -4808,19 +4813,19 @@
         <v>161</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>160</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1">
@@ -4833,7 +4838,7 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>3</v>
@@ -4874,7 +4879,7 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>55</v>
@@ -4915,7 +4920,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>63</v>
@@ -4956,7 +4961,7 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>71</v>
@@ -4995,28 +5000,28 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G72" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -5027,28 +5032,28 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="F73" s="5" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -5059,28 +5064,28 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -5091,28 +5096,28 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -5126,13 +5131,13 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>96</v>
@@ -5165,22 +5170,22 @@
     <row r="77" spans="1:14">
       <c r="A77" s="5"/>
       <c r="B77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="1"/>
@@ -5190,28 +5195,28 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -5225,7 +5230,7 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>83</v>
@@ -5263,25 +5268,25 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1"/>
@@ -5293,28 +5298,28 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -5441,7 +5446,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1">
         <v>10</v>
@@ -5453,7 +5458,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -5465,7 +5470,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -5477,7 +5482,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -5489,7 +5494,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -5501,7 +5506,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5513,7 +5518,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5525,7 +5530,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -5537,7 +5542,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -5549,7 +5554,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -5635,194 +5640,194 @@
         <v>121</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" t="s">
         <v>310</v>
       </c>
-      <c r="B2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" t="s">
-        <v>311</v>
-      </c>
       <c r="G2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H2" t="s">
         <v>294</v>
-      </c>
-      <c r="H2" t="s">
-        <v>295</v>
       </c>
       <c r="L2">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="P2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H3" t="s">
         <v>296</v>
-      </c>
-      <c r="H3" t="s">
-        <v>297</v>
       </c>
       <c r="L3">
         <v>5.3800000000000001E-2</v>
       </c>
       <c r="P3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" t="s">
         <v>298</v>
-      </c>
-      <c r="H4" t="s">
-        <v>299</v>
       </c>
       <c r="L4">
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="P4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H5" t="s">
         <v>300</v>
-      </c>
-      <c r="H5" t="s">
-        <v>301</v>
       </c>
       <c r="L5">
         <v>5.0099999999999999E-2</v>
       </c>
       <c r="P5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
       </c>
       <c r="G6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" t="s">
         <v>302</v>
-      </c>
-      <c r="H6" t="s">
-        <v>303</v>
       </c>
       <c r="L6">
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="P6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H7" t="s">
         <v>304</v>
-      </c>
-      <c r="H7" t="s">
-        <v>305</v>
       </c>
       <c r="L7">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="P7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H8" t="s">
         <v>306</v>
-      </c>
-      <c r="H8" t="s">
-        <v>307</v>
       </c>
       <c r="L8">
         <v>5.1299999999999998E-2</v>
       </c>
       <c r="P8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s">
         <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H9" t="s">
         <v>308</v>
-      </c>
-      <c r="H9" t="s">
-        <v>309</v>
       </c>
       <c r="L9">
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="P9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5867,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5878,7 +5883,7 @@
         <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5886,18 +5891,18 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5910,18 +5915,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1254939-E39F-4FE9-9AB7-58092461DA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F65034B-6F9C-469A-82FA-2258BDC484EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="573">
   <si>
     <t>Source</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Golf</t>
   </si>
   <si>
-    <t>Loch</t>
-  </si>
-  <si>
     <t>Ball</t>
   </si>
   <si>
@@ -305,15 +302,9 @@
     <t>Safari</t>
   </si>
   <si>
-    <t>Ausflug</t>
-  </si>
-  <si>
     <t>Afrika</t>
   </si>
   <si>
-    <t>Dschungel</t>
-  </si>
-  <si>
     <t>Sitzgurt</t>
   </si>
   <si>
@@ -1142,9 +1133,6 @@
     <t>Medal</t>
   </si>
   <si>
-    <t>Spiele</t>
-  </si>
-  <si>
     <t>Ringe</t>
   </si>
   <si>
@@ -1688,9 +1676,6 @@
     <t>Tablett</t>
   </si>
   <si>
-    <t>Kellnerin</t>
-  </si>
-  <si>
     <t>Monster</t>
   </si>
   <si>
@@ -1761,6 +1746,18 @@
   </si>
   <si>
     <t>Kappe</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Löwe</t>
+  </si>
+  <si>
+    <t>Elephant</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1811,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1845,12 +1842,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1864,7 +1855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1887,13 +1878,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="68">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1985,6 +1974,40 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1996,11 +2019,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="7"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2095,6 +2118,40 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2106,11 +2163,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="7"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2195,6 +2252,40 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2206,45 +2297,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="7"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2260,11 +2317,231 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="7"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2546,9 +2823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
@@ -2575,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2596,19 +2873,19 @@
         <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N1" s="2"/>
     </row>
@@ -2617,7 +2894,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
@@ -2638,10 +2915,10 @@
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K2">
         <v>3.1E-2</v>
@@ -2655,34 +2932,34 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K3" s="1">
         <v>0.03</v>
@@ -2696,34 +2973,34 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K4" s="1">
         <v>0.02</v>
@@ -2732,27 +3009,27 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2766,7 +3043,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>11</v>
@@ -2787,10 +3064,10 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K6">
         <v>0.02</v>
@@ -2799,7 +3076,7 @@
         <v>0.18</v>
       </c>
       <c r="M6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2807,7 +3084,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
@@ -2828,7 +3105,7 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
@@ -2845,34 +3122,34 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2882,31 +3159,31 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K9" s="1">
         <v>0.04</v>
@@ -2920,28 +3197,28 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2950,22 +3227,22 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2979,31 +3256,31 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
-      </c>
-      <c r="C12" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K12" s="1">
         <v>6.6000000000000003E-2</v>
@@ -3020,31 +3297,31 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>78</v>
+      <c r="F13" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K13" s="1">
         <v>1.4E-2</v>
@@ -3058,28 +3335,28 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3091,31 +3368,31 @@
     <row r="15" spans="1:14">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="J15" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="K15" s="3">
         <v>0.03</v>
@@ -3132,31 +3409,31 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C16" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>90</v>
+      <c r="F16" s="5" t="s">
+        <v>571</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K16" s="1">
         <v>0.02</v>
@@ -3170,34 +3447,34 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="I17" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="J17" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="K17" s="1">
         <v>0.05</v>
@@ -3212,31 +3489,31 @@
     <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="K18" s="1">
         <v>0.05</v>
@@ -3250,34 +3527,34 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="J19" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="K19" s="1">
         <v>3.0300000000000001E-2</v>
@@ -3291,34 +3568,34 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="I20" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="J20" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="K20" s="1">
         <v>5.0500000000000003E-2</v>
@@ -3332,34 +3609,34 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B21" t="s">
-        <v>287</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="J21" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="K21" s="3">
         <v>4.1000000000000002E-2</v>
@@ -3374,22 +3651,22 @@
     <row r="22" spans="1:13">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3400,31 +3677,31 @@
     <row r="23" spans="1:13">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -3432,31 +3709,31 @@
     <row r="24" spans="1:13">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E24" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="J24" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -3464,31 +3741,31 @@
     <row r="25" spans="1:13">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="H25" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="J25" s="5" t="s">
         <v>442</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -3496,31 +3773,31 @@
     <row r="26" spans="1:13">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>434</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3530,7 +3807,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>5</v>
@@ -3551,7 +3828,7 @@
         <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
@@ -3569,19 +3846,19 @@
     <row r="28" spans="1:13">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
@@ -3592,28 +3869,28 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3625,25 +3902,25 @@
     <row r="30" spans="1:13">
       <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3654,28 +3931,28 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3686,28 +3963,28 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3718,22 +3995,22 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -3747,22 +4024,22 @@
     <row r="34" spans="1:13">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="1"/>
@@ -3772,28 +4049,28 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3804,28 +4081,28 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3837,22 +4114,22 @@
     <row r="37" spans="1:13">
       <c r="A37" s="5"/>
       <c r="B37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="1"/>
@@ -3862,28 +4139,28 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3897,31 +4174,31 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="E39" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K39" s="1">
         <v>1.4999999999999999E-2</v>
@@ -3935,28 +4212,28 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -3968,22 +4245,22 @@
     <row r="41" spans="1:13">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>457</v>
+        <v>385</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="1"/>
@@ -3996,7 +4273,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>59</v>
@@ -4011,16 +4288,16 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K42">
         <v>6.2E-2</v>
@@ -4034,28 +4311,28 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -4066,28 +4343,28 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -4098,28 +4375,28 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -4131,19 +4408,19 @@
     <row r="46" spans="1:13">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -4156,22 +4433,22 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -4182,28 +4459,28 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -4214,28 +4491,28 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -4246,28 +4523,28 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B50" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -4278,28 +4555,28 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B51" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -4310,28 +4587,28 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B52" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -4345,7 +4622,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>15</v>
@@ -4356,7 +4633,7 @@
       <c r="E53" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G53" t="s">
@@ -4369,7 +4646,7 @@
         <v>32</v>
       </c>
       <c r="J53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K53">
         <v>3.5999999999999997E-2</v>
@@ -4386,31 +4663,31 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K54" s="1">
         <v>3.4000000000000002E-2</v>
@@ -4424,28 +4701,28 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B55" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -4456,25 +4733,25 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B56" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="1"/>
@@ -4486,28 +4763,28 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -4518,28 +4795,28 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B58" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -4550,28 +4827,28 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B59" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -4585,7 +4862,7 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>17</v>
@@ -4606,10 +4883,10 @@
         <v>54</v>
       </c>
       <c r="I60" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K60">
         <v>7.0000000000000007E-2</v>
@@ -4623,28 +4900,28 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B61" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -4656,25 +4933,25 @@
     <row r="62" spans="1:13">
       <c r="A62" s="5"/>
       <c r="B62" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -4685,7 +4962,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="B63" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>9</v>
@@ -4706,10 +4983,10 @@
         <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J63" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K63">
         <v>1.6E-2</v>
@@ -4724,22 +5001,22 @@
     <row r="64" spans="1:13">
       <c r="A64" s="5"/>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="1"/>
@@ -4750,22 +5027,22 @@
     <row r="65" spans="1:14">
       <c r="A65" s="5"/>
       <c r="B65" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="1"/>
@@ -4776,19 +5053,19 @@
     <row r="66" spans="1:14">
       <c r="A66" s="5"/>
       <c r="B66" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>535</v>
-      </c>
       <c r="E66" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -4801,31 +5078,31 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1">
@@ -4838,7 +5115,7 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>3</v>
@@ -4859,10 +5136,10 @@
         <v>43</v>
       </c>
       <c r="I68" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J68" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K68">
         <v>1.9E-2</v>
@@ -4879,7 +5156,7 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>55</v>
@@ -4894,16 +5171,16 @@
         <v>58</v>
       </c>
       <c r="G69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H69" t="s">
         <v>56</v>
       </c>
       <c r="I69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J69" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K69">
         <v>1.4E-2</v>
@@ -4920,7 +5197,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>63</v>
@@ -4935,16 +5212,16 @@
         <v>66</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K70" s="1">
         <v>1.2999999999999999E-2</v>
@@ -4961,7 +5238,7 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>71</v>
@@ -4976,16 +5253,16 @@
         <v>74</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K71" s="1">
         <v>1.2999999999999999E-2</v>
@@ -5000,28 +5277,28 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -5032,28 +5309,28 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B73" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -5064,28 +5341,28 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -5096,28 +5373,28 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -5131,31 +5408,31 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K76" s="1">
         <v>1.4E-2</v>
@@ -5170,22 +5447,22 @@
     <row r="77" spans="1:14">
       <c r="A77" s="5"/>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="1"/>
@@ -5195,28 +5472,28 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B78" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -5230,31 +5507,31 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C79" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="E79" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="F79" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F79" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="G79" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K79" s="1">
         <v>1.0999999999999999E-2</v>
@@ -5268,25 +5545,25 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1"/>
@@ -5298,28 +5575,28 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -5382,52 +5659,55 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B81 B86:B89">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>"plant"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>"abstract"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B81 B86:B90">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>"person"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
       <formula>"animal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B89">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"location"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B90">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"food"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86:C89 B90:B91 B104:B1048576 C1:C82">
-    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C91 D1:D7 D9:D81 D86:D89 C104:C1048576 D8:E8">
-    <cfRule type="duplicateValues" dxfId="29" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C86:F89 B90:F91 B104:F1048576 D92:F103 G23:G27 C82 C1:F10 I6:I8 J7:J8 C12:F81 C11:E11">
-    <cfRule type="duplicateValues" dxfId="28" priority="90"/>
+  <conditionalFormatting sqref="C86:F89 B90:F91 B104:F1048576 D92:F103 C82 C1:F10 I6:I8 J7:J8 C12:F81 C11:E11">
+    <cfRule type="duplicateValues" dxfId="34" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:D1048576 E1:E7 E9:E81 E86:E89">
-    <cfRule type="duplicateValues" dxfId="27" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E1048576 F1:F10 F86:F89 G23:G27 I6:I8 J7:J8 F12:F81">
-    <cfRule type="duplicateValues" dxfId="26" priority="55"/>
+  <conditionalFormatting sqref="E90:E1048576 F1:F10 F86:F89 I6:I8 J7:J8 F12:F81">
+    <cfRule type="duplicateValues" dxfId="32" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:F1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G27 C82 C1:F10 I6:I8 J7:J8 C12:F81 C11:E11">
-    <cfRule type="duplicateValues" dxfId="24" priority="160"/>
+  <conditionalFormatting sqref="C82 C1:F10 I6:I8 J7:J8 C12:F81 C11:E11">
+    <cfRule type="duplicateValues" dxfId="30" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:F81">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5446,7 +5726,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B1">
         <v>10</v>
@@ -5458,7 +5738,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -5470,7 +5750,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -5482,7 +5762,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -5494,7 +5774,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -5506,7 +5786,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5518,7 +5798,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5530,7 +5810,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -5542,7 +5822,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -5554,7 +5834,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -5576,7 +5856,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5622,233 +5902,233 @@
         <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L2">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="P2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L3">
         <v>5.3800000000000001E-2</v>
       </c>
       <c r="P3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" t="s">
         <v>309</v>
       </c>
-      <c r="B4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" t="s">
-        <v>312</v>
-      </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L4">
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="P4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L5">
         <v>5.0099999999999999E-2</v>
       </c>
       <c r="P5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L6">
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="P6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L7">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="P7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L8">
         <v>5.1299999999999998E-2</v>
       </c>
       <c r="P8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L9">
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="P9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5872,103 +6152,103 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F65034B-6F9C-469A-82FA-2258BDC484EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD0DBAA-5DFC-4F0F-81E9-6EDA3F1C8C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1751,13 +1751,13 @@
     <t>Sport</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
     <t>Löwe</t>
   </si>
   <si>
     <t>Elephant</t>
+  </si>
+  <si>
+    <t>Servierer</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1882,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="39">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1890,418 +1890,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2542,6 +2130,140 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2823,9 +2545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
@@ -3415,13 +3137,13 @@
         <v>86</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>86</v>
@@ -5388,7 +5110,7 @@
         <v>543</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>242</v>
@@ -5659,55 +5381,55 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B81 B86:B89">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>"plant"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"abstract"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B81 B86:B90">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"person"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"animal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B89">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"location"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B90">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"food"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C82 C1:F10 I6:I8 J7:J8 C12:F81 C11:E11">
+    <cfRule type="duplicateValues" dxfId="32" priority="161"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C86:C89 B90:B91 B104:B1048576 C1:C82">
-    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C91 D1:D7 D9:D81 D86:D89 C104:C1048576 D8:E8">
-    <cfRule type="duplicateValues" dxfId="35" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:F81">
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86:F89 B90:F91 B104:F1048576 D92:F103 C82 C1:F10 I6:I8 J7:J8 C12:F81 C11:E11">
-    <cfRule type="duplicateValues" dxfId="34" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:D1048576 E1:E7 E9:E81 E86:E89">
-    <cfRule type="duplicateValues" dxfId="33" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E1048576 F1:F10 F86:F89 I6:I8 J7:J8 F12:F81">
-    <cfRule type="duplicateValues" dxfId="32" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:F1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82 C1:F10 I6:I8 J7:J8 C12:F81 C11:E11">
-    <cfRule type="duplicateValues" dxfId="30" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F81">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="97"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5856,7 +5578,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="67" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6112,23 +5834,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="66" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="63" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6211,44 +5933,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="57" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="51" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="duplicateValues" dxfId="50" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="47" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="46" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7182D463-EE70-4B0B-8193-C72613A8563C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA4A5B7-DF30-4497-AF10-EE1E3CBE126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="697">
   <si>
     <t>Source</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Hilfe</t>
   </si>
   <si>
-    <t>Station</t>
-  </si>
-  <si>
-    <t>Conditioner</t>
-  </si>
-  <si>
     <t>Haare</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>Geburtstag</t>
   </si>
   <si>
-    <t>Kerze</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kuchen </t>
   </si>
   <si>
@@ -320,12 +311,6 @@
     <t>Luft</t>
   </si>
   <si>
-    <t>Decke</t>
-  </si>
-  <si>
-    <t>Kissen</t>
-  </si>
-  <si>
     <t>Frieden</t>
   </si>
   <si>
@@ -353,12 +338,6 @@
     <t>Applaus</t>
   </si>
   <si>
-    <t>Pumpe</t>
-  </si>
-  <si>
-    <t>Reifen</t>
-  </si>
-  <si>
     <t>Raum</t>
   </si>
   <si>
@@ -674,9 +653,6 @@
     <t>Langsam</t>
   </si>
   <si>
-    <t>Hülse</t>
-  </si>
-  <si>
     <t>Hai</t>
   </si>
   <si>
@@ -764,9 +740,6 @@
     <t>Vulkan</t>
   </si>
   <si>
-    <t>Kiefer</t>
-  </si>
-  <si>
     <t>Rebe</t>
   </si>
   <si>
@@ -929,15 +902,9 @@
     <t>Kaffee</t>
   </si>
   <si>
-    <t>Trinken</t>
-  </si>
-  <si>
     <t>Rot</t>
   </si>
   <si>
-    <t>Flasche</t>
-  </si>
-  <si>
     <t>Gewürz</t>
   </si>
   <si>
@@ -947,9 +914,6 @@
     <t>Bücher</t>
   </si>
   <si>
-    <t>Ausbildung</t>
-  </si>
-  <si>
     <t>Lernen</t>
   </si>
   <si>
@@ -986,18 +950,9 @@
     <t>Gruppe</t>
   </si>
   <si>
-    <t>Gesellschaft</t>
-  </si>
-  <si>
     <t>Wind</t>
   </si>
   <si>
-    <t>Abdeckung</t>
-  </si>
-  <si>
-    <t>Wärme</t>
-  </si>
-  <si>
     <t>Garten</t>
   </si>
   <si>
@@ -1037,9 +992,6 @@
     <t>Lava</t>
   </si>
   <si>
-    <t>Kabine</t>
-  </si>
-  <si>
     <t>Herbst</t>
   </si>
   <si>
@@ -1076,12 +1028,6 @@
     <t>Datei</t>
   </si>
   <si>
-    <t>Benzin</t>
-  </si>
-  <si>
-    <t>Wasser</t>
-  </si>
-  <si>
     <t>Tür</t>
   </si>
   <si>
@@ -1124,9 +1070,6 @@
     <t>Himmel</t>
   </si>
   <si>
-    <t>Gericht</t>
-  </si>
-  <si>
     <t>Essen</t>
   </si>
   <si>
@@ -1160,9 +1103,6 @@
     <t>Berg</t>
   </si>
   <si>
-    <t>Spitze</t>
-  </si>
-  <si>
     <t>Hügel</t>
   </si>
   <si>
@@ -1223,18 +1163,6 @@
     <t>Trauben</t>
   </si>
   <si>
-    <t>Milch</t>
-  </si>
-  <si>
-    <t>Kuh</t>
-  </si>
-  <si>
-    <t>Butter</t>
-  </si>
-  <si>
-    <t>Handy</t>
-  </si>
-  <si>
     <t>Anruf</t>
   </si>
   <si>
@@ -1331,9 +1259,6 @@
     <t>newspaper</t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
     <t>vampire</t>
   </si>
   <si>
@@ -1412,9 +1337,6 @@
     <t>tea</t>
   </si>
   <si>
-    <t>milk</t>
-  </si>
-  <si>
     <t>cinnamon</t>
   </si>
   <si>
@@ -1442,9 +1364,6 @@
     <t>pouch</t>
   </si>
   <si>
-    <t>blanket</t>
-  </si>
-  <si>
     <t>helmet</t>
   </si>
   <si>
@@ -1595,15 +1514,9 @@
     <t>leaves</t>
   </si>
   <si>
-    <t>butter</t>
-  </si>
-  <si>
     <t>roll</t>
   </si>
   <si>
-    <t>society</t>
-  </si>
-  <si>
     <t>business</t>
   </si>
   <si>
@@ -1631,9 +1544,6 @@
     <t>sack</t>
   </si>
   <si>
-    <t>pillow</t>
-  </si>
-  <si>
     <t>cap</t>
   </si>
   <si>
@@ -1742,9 +1652,6 @@
     <t>coffee</t>
   </si>
   <si>
-    <t>cow</t>
-  </si>
-  <si>
     <t>tub</t>
   </si>
   <si>
@@ -1775,9 +1682,6 @@
     <t>pocket</t>
   </si>
   <si>
-    <t>warm</t>
-  </si>
-  <si>
     <t>bicycle</t>
   </si>
   <si>
@@ -1907,12 +1811,6 @@
     <t>sauce</t>
   </si>
   <si>
-    <t>drink</t>
-  </si>
-  <si>
-    <t>bottle</t>
-  </si>
-  <si>
     <t>sugar</t>
   </si>
   <si>
@@ -1949,9 +1847,6 @@
     <t>kangaroo</t>
   </si>
   <si>
-    <t>cover</t>
-  </si>
-  <si>
     <t>head</t>
   </si>
   <si>
@@ -2136,6 +2031,105 @@
   </si>
   <si>
     <t>Christmas</t>
+  </si>
+  <si>
+    <t>Haus</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Fernseher</t>
+  </si>
+  <si>
+    <t>Musik</t>
+  </si>
+  <si>
+    <t>Sendung</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Bildung</t>
+  </si>
+  <si>
+    <t>Geschirr</t>
+  </si>
+  <si>
+    <t>Spülung</t>
+  </si>
+  <si>
+    <t>Gipfel</t>
+  </si>
+  <si>
+    <t>Hütte</t>
+  </si>
+  <si>
+    <t>Tanne</t>
+  </si>
+  <si>
+    <t>Kerzen</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Hemd</t>
+  </si>
+  <si>
+    <t>Bluse</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>blouse</t>
+  </si>
+  <si>
+    <t>Tasse</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>Saft</t>
+  </si>
+  <si>
+    <t>Tomate</t>
+  </si>
+  <si>
+    <t>Apfel</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>writer</t>
+  </si>
+  <si>
+    <t>Tanz</t>
+  </si>
+  <si>
+    <t>dance</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +2189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2204,31 +2198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2245,7 +2227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2257,24 +2239,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="57">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2282,6 +2262,314 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2522,150 +2810,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2949,7 +3093,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
@@ -2972,7 +3116,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2981,121 +3125,121 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="G2" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="H2" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="I2" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>31</v>
+        <v>150</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>253</v>
+        <v>150</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>669</v>
+        <v>634</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="5"/>
@@ -3103,1487 +3247,1487 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>261</v>
+        <v>150</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="G6" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="H6" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="I6" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="G7" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="H7" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="I7" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>255</v>
+        <v>150</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>698</v>
+        <v>663</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>250</v>
+        <v>150</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>258</v>
+        <v>150</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>375</v>
+        <v>150</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>60</v>
+        <v>151</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>691</v>
+        <v>656</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>401</v>
+        <v>151</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>672</v>
+        <v>637</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>213</v>
+        <v>147</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>220</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>211</v>
+        <v>147</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>664</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>227</v>
+        <v>147</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>264</v>
+        <v>147</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>293</v>
+        <v>285</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>280</v>
+        <v>224</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>666</v>
+        <v>152</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>631</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="G27" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="H27" t="s">
-        <v>697</v>
+        <v>662</v>
       </c>
       <c r="I27" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>296</v>
+        <v>185</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>684</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>622</v>
+        <v>685</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>298</v>
+        <v>185</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>689</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>457</v>
+        <v>690</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>518</v>
+        <v>691</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>567</v>
+        <v>692</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>300</v>
+        <v>185</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>696</v>
+        <v>661</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>313</v>
+        <v>149</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>675</v>
+        <v>640</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>673</v>
+        <v>638</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>314</v>
+        <v>149</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>520</v>
+        <v>696</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>305</v>
+        <v>149</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>321</v>
+        <v>149</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>327</v>
+        <v>149</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>307</v>
+        <v>149</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>336</v>
+        <v>149</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>337</v>
+        <v>149</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>465</v>
+        <v>100</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>246</v>
+        <v>149</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>303</v>
+        <v>290</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="E42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F42" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="G42" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="H42" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="I42" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>94</v>
+        <v>184</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>680</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>317</v>
+        <v>174</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>467</v>
+        <v>681</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>530</v>
+        <v>682</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>636</v>
+        <v>164</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>683</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>128</v>
+        <v>184</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>397</v>
+        <v>184</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>669</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>676</v>
+        <v>641</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>101</v>
+        <v>184</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>640</v>
+        <v>605</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>105</v>
+        <v>184</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>668</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>345</v>
+        <v>666</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>346</v>
+        <v>667</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>694</v>
+        <v>659</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>191</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>111</v>
+        <v>184</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>677</v>
+        <v>184</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>642</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>678</v>
+        <v>643</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>644</v>
+        <v>609</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>14</v>
@@ -4591,305 +4735,305 @@
       <c r="C53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>29</v>
+      <c r="D53" s="12" t="s">
+        <v>672</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="G53" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="H53" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="I53" t="s">
-        <v>645</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>680</v>
+        <v>645</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>679</v>
+        <v>644</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>646</v>
+        <v>611</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>647</v>
+        <v>612</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>648</v>
+        <v>613</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>361</v>
+        <v>109</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>671</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>590</v>
+        <v>513</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>558</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="G60" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="H60" t="s">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="I60" t="s">
-        <v>650</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>652</v>
+        <v>617</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>651</v>
+        <v>616</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>653</v>
+        <v>618</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>8</v>
@@ -4904,151 +5048,151 @@
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="G63" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="H63" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="I63" t="s">
-        <v>654</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>656</v>
+        <v>621</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>376</v>
+        <v>183</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>673</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>657</v>
+        <v>622</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>153</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>311</v>
+        <v>146</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>658</v>
+        <v>623</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>682</v>
+        <v>647</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>17</v>
@@ -5057,105 +5201,105 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="G68" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="H68" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="I68" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F69" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="G69" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="H69" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="I69" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="E70" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="F70" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G70" s="18" t="s">
         <v>465</v>
       </c>
+      <c r="G70" s="9" t="s">
+        <v>439</v>
+      </c>
       <c r="H70" s="1" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>659</v>
+        <v>624</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>153</v>
-      </c>
-      <c r="B71" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>683</v>
+        <v>648</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>660</v>
+        <v>625</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -5163,310 +5307,310 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>380</v>
+        <v>146</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>661</v>
+        <v>626</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>381</v>
+        <v>146</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>430</v>
+        <v>694</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>332</v>
+        <v>148</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>674</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>664</v>
+        <v>629</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>333</v>
+        <v>148</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>334</v>
+        <v>633</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="1"/>
@@ -5521,58 +5665,61 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A81 A86:A89">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
       <formula>"plant"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"abstract"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A81 A86:A90">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>"person"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"animal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A89">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>"location"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A90">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"food"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82 B1:E10 B12:E81 B11:D11">
-    <cfRule type="duplicateValues" dxfId="33" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B89 A90:A91 A104:A1048576 B1:B82">
-    <cfRule type="duplicateValues" dxfId="32" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B91 C1:C7 C9:C81 C86:C89 B104:B1048576 C8:D8">
-    <cfRule type="duplicateValues" dxfId="30" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E81">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:E89 A90:E91 A104:E1048576 C92:E103 B82 B1:E10 B12:E81 B11:D11">
-    <cfRule type="duplicateValues" dxfId="28" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C1048576 D1:D7 D9:D81 D86:D89">
-    <cfRule type="duplicateValues" dxfId="27" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:D1048576 E1:E10 E86:E89 E12:E81">
-    <cfRule type="duplicateValues" dxfId="26" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:I1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5591,7 +5738,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B1">
         <v>10</v>
@@ -5603,7 +5750,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -5615,7 +5762,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -5627,7 +5774,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -5639,7 +5786,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -5651,7 +5798,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5663,7 +5810,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5675,7 +5822,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -5687,7 +5834,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -5699,7 +5846,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -5721,7 +5868,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5752,248 +5899,248 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L2">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L3">
         <v>5.3800000000000001E-2</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L4">
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L5">
         <v>5.0099999999999999E-2</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L6">
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
         <v>176</v>
       </c>
-      <c r="B7" t="s">
-        <v>183</v>
-      </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L7">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L8">
         <v>5.1299999999999998E-2</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L9">
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6017,103 +6164,103 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
         <v>144</v>
-      </c>
-      <c r="C3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA4A5B7-DF30-4497-AF10-EE1E3CBE126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19072BBF-B3C0-4608-8455-1F18B0E00DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1376,9 +1376,6 @@
     <t>folder</t>
   </si>
   <si>
-    <t>pump</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -1559,9 +1556,6 @@
     <t>directory</t>
   </si>
   <si>
-    <t>tire</t>
-  </si>
-  <si>
     <t>ring</t>
   </si>
   <si>
@@ -1859,9 +1853,6 @@
     <t>paper</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>lock</t>
   </si>
   <si>
@@ -2018,9 +2009,6 @@
     <t>team</t>
   </si>
   <si>
-    <t>gas</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
@@ -2130,6 +2118,18 @@
   </si>
   <si>
     <t>dance</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>television</t>
+  </si>
+  <si>
+    <t>music</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2254,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="41">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2262,314 +2262,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2810,6 +2502,160 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3093,7 +2939,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
@@ -3173,13 +3019,13 @@
         <v>417</v>
       </c>
       <c r="G2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3202,13 +3048,13 @@
         <v>418</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="5"/>
@@ -3230,13 +3076,13 @@
         <v>244</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>245</v>
@@ -3265,13 +3111,13 @@
         <v>419</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="1"/>
@@ -3296,13 +3142,13 @@
         <v>420</v>
       </c>
       <c r="G6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3313,7 +3159,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>27</v>
@@ -3325,13 +3171,13 @@
         <v>421</v>
       </c>
       <c r="G7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3354,13 +3200,13 @@
         <v>422</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3385,13 +3231,13 @@
         <v>423</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3416,13 +3262,13 @@
         <v>424</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3447,13 +3293,13 @@
         <v>425</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="1"/>
@@ -3466,7 +3312,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>49</v>
@@ -3478,13 +3324,13 @@
         <v>426</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3497,7 +3343,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>56</v>
@@ -3509,7 +3355,7 @@
         <v>427</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>162</v>
@@ -3537,16 +3383,16 @@
         <v>378</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3568,16 +3414,16 @@
         <v>223</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
@@ -3602,13 +3448,13 @@
         <v>428</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3689,7 +3535,7 @@
         <v>203</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>199</v>
@@ -3785,16 +3631,16 @@
         <v>284</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3900,19 +3746,19 @@
         <v>119</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>266</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>228</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>268</v>
@@ -3943,13 +3789,13 @@
         <v>429</v>
       </c>
       <c r="G27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H27" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I27" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3972,13 +3818,13 @@
         <v>430</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3997,19 +3843,19 @@
         <v>286</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>431</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="1"/>
@@ -4019,28 +3865,28 @@
         <v>185</v>
       </c>
       <c r="B30" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="G30" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>689</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>693</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
@@ -4065,13 +3911,13 @@
         <v>432</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="1"/>
@@ -4084,7 +3930,7 @@
         <v>120</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>300</v>
@@ -4093,16 +3939,16 @@
         <v>301</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
@@ -4115,7 +3961,7 @@
         <v>83</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>82</v>
@@ -4127,13 +3973,13 @@
         <v>433</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="1"/>
@@ -4158,13 +4004,13 @@
         <v>434</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>166</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="1"/>
@@ -4189,13 +4035,13 @@
         <v>435</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4220,13 +4066,13 @@
         <v>436</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -4251,13 +4097,13 @@
         <v>239</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
@@ -4282,13 +4128,13 @@
         <v>437</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="1"/>
@@ -4313,13 +4159,13 @@
         <v>438</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4344,13 +4190,13 @@
         <v>439</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -4366,7 +4212,7 @@
         <v>290</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>291</v>
@@ -4375,13 +4221,13 @@
         <v>236</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
@@ -4406,13 +4252,13 @@
         <v>440</v>
       </c>
       <c r="G42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H42" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I42" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4420,28 +4266,28 @@
         <v>184</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -4466,13 +4312,13 @@
         <v>441</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="1"/>
@@ -4497,13 +4343,13 @@
         <v>442</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="1"/>
@@ -4513,7 +4359,7 @@
         <v>184</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>375</v>
@@ -4525,13 +4371,13 @@
         <v>376</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>267</v>
@@ -4559,13 +4405,13 @@
         <v>443</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="1"/>
@@ -4590,13 +4436,13 @@
         <v>444</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4606,28 +4452,28 @@
         <v>184</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>445</v>
+        <v>693</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>506</v>
+        <v>694</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>606</v>
+        <v>696</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -4649,16 +4495,16 @@
         <v>330</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -4671,7 +4517,7 @@
         <v>130</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>332</v>
@@ -4680,16 +4526,16 @@
         <v>331</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="1"/>
@@ -4711,16 +4557,16 @@
         <v>334</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="1"/>
@@ -4736,22 +4582,22 @@
         <v>15</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H53" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I53" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4762,7 +4608,7 @@
         <v>68</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>69</v>
@@ -4771,16 +4617,16 @@
         <v>70</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -4802,16 +4648,16 @@
         <v>335</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4833,16 +4679,16 @@
         <v>338</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="1"/>
@@ -4864,16 +4710,16 @@
         <v>341</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4889,19 +4735,19 @@
         <v>109</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>343</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>185</v>
@@ -4926,16 +4772,16 @@
         <v>344</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="1"/>
@@ -4948,25 +4794,25 @@
         <v>16</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>651</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>654</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G60" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H60" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="I60" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4986,16 +4832,16 @@
         <v>349</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -5017,16 +4863,16 @@
         <v>303</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>160</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -5048,16 +4894,16 @@
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G63" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H63" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I63" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -5080,13 +4926,13 @@
         <v>235</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="1"/>
@@ -5108,16 +4954,16 @@
         <v>352</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="1"/>
@@ -5136,19 +4982,19 @@
         <v>354</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="1"/>
@@ -5170,16 +5016,16 @@
         <v>299</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="5"/>
@@ -5192,7 +5038,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>17</v>
@@ -5201,16 +5047,16 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G68" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H68" t="s">
+        <v>565</v>
+      </c>
+      <c r="I68" t="s">
         <v>567</v>
-      </c>
-      <c r="I68" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -5221,7 +5067,7 @@
         <v>37</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>38</v>
@@ -5230,16 +5076,16 @@
         <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G69" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H69" t="s">
+        <v>566</v>
+      </c>
+      <c r="I69" t="s">
         <v>568</v>
-      </c>
-      <c r="I69" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -5259,16 +5105,16 @@
         <v>47</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>439</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -5290,16 +5136,16 @@
         <v>54</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -5322,16 +5168,16 @@
         <v>359</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="1"/>
@@ -5353,16 +5199,16 @@
         <v>362</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -5381,7 +5227,7 @@
         <v>365</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>403</v>
@@ -5393,7 +5239,7 @@
         <v>405</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="1"/>
@@ -5449,7 +5295,7 @@
         <v>406</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>407</v>
@@ -5496,10 +5342,10 @@
         <v>148</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>367</v>
@@ -5517,7 +5363,7 @@
         <v>398</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="1"/>
@@ -5570,10 +5416,10 @@
         <v>138</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>416</v>
@@ -5592,7 +5438,7 @@
         <v>129</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>318</v>
@@ -5601,7 +5447,7 @@
         <v>287</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>275</v>
@@ -5665,61 +5511,61 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A81 A86:A89">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
       <formula>"plant"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>"abstract"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A81 A86:A90">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
       <formula>"person"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
       <formula>"animal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A89">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"location"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A90">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"food"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82 B1:E10 B12:E81 B11:D11">
-    <cfRule type="duplicateValues" dxfId="26" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B89 A90:A91 A104:A1048576 B1:B82">
-    <cfRule type="duplicateValues" dxfId="25" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B91 C1:C7 C9:C81 C86:C89 B104:B1048576 C8:D8">
-    <cfRule type="duplicateValues" dxfId="23" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:E1048576">
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E81">
-    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:E89 A90:E91 A104:E1048576 C92:E103 B82 B1:E10 B12:E81 B11:D11">
-    <cfRule type="duplicateValues" dxfId="21" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C1048576 D1:D7 D9:D81 D86:D89">
-    <cfRule type="duplicateValues" dxfId="20" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:D1048576 E1:E10 E86:E89 E12:E81">
-    <cfRule type="duplicateValues" dxfId="19" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:I1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5868,7 +5714,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6124,23 +5970,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="52" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="51" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6223,44 +6069,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="48" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="46" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="40" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5">
-    <cfRule type="duplicateValues" dxfId="39" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="duplicateValues" dxfId="38" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="35" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19072BBF-B3C0-4608-8455-1F18B0E00DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C4F7F2-2D3A-4924-8FCC-6CAEC0CC3574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="696">
   <si>
     <t>Source</t>
   </si>
@@ -1178,9 +1178,6 @@
     <t>Ei</t>
   </si>
   <si>
-    <t>Sonntag</t>
-  </si>
-  <si>
     <t>Weiß</t>
   </si>
   <si>
@@ -1469,9 +1466,6 @@
     <t>lawyer</t>
   </si>
   <si>
-    <t>station</t>
-  </si>
-  <si>
     <t>heritage</t>
   </si>
   <si>
@@ -1490,9 +1484,6 @@
     <t>spaghetti</t>
   </si>
   <si>
-    <t>Sunday</t>
-  </si>
-  <si>
     <t>medal</t>
   </si>
   <si>
@@ -1910,9 +1901,6 @@
     <t>sister</t>
   </si>
   <si>
-    <t>univerity</t>
-  </si>
-  <si>
     <t>people</t>
   </si>
   <si>
@@ -2130,6 +2118,15 @@
   </si>
   <si>
     <t>music</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>Ferien</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2182,25 +2179,13 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2227,7 +2212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2239,17 +2224,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2939,7 +2921,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
@@ -3016,16 +2998,16 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3044,17 +3026,17 @@
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>574</v>
+      <c r="F3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H3" t="s">
+        <v>521</v>
+      </c>
+      <c r="I3" t="s">
+        <v>571</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="5"/>
@@ -3075,16 +3057,16 @@
       <c r="E4" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="F4" t="s">
+        <v>627</v>
+      </c>
+      <c r="G4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H4" t="s">
+        <v>522</v>
+      </c>
+      <c r="I4" t="s">
         <v>245</v>
       </c>
       <c r="J4" s="1"/>
@@ -3107,17 +3089,17 @@
       <c r="E5" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G5" t="s">
+        <v>471</v>
+      </c>
+      <c r="H5" t="s">
         <v>472</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" t="s">
         <v>473</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="1"/>
@@ -3139,16 +3121,16 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3158,8 +3140,8 @@
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>673</v>
+      <c r="C7" s="10" t="s">
+        <v>669</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>27</v>
@@ -3168,16 +3150,16 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G7" t="s">
-        <v>476</v>
+        <v>693</v>
       </c>
       <c r="H7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3196,17 +3178,17 @@
       <c r="E8" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>577</v>
+      <c r="F8" t="s">
+        <v>421</v>
+      </c>
+      <c r="G8" t="s">
+        <v>475</v>
+      </c>
+      <c r="H8" t="s">
+        <v>655</v>
+      </c>
+      <c r="I8" t="s">
+        <v>574</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3227,17 +3209,17 @@
       <c r="E9" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>578</v>
+      <c r="F9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G9" t="s">
+        <v>476</v>
+      </c>
+      <c r="H9" t="s">
+        <v>525</v>
+      </c>
+      <c r="I9" t="s">
+        <v>575</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3258,17 +3240,17 @@
       <c r="E10" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>579</v>
+      <c r="F10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G10" t="s">
+        <v>477</v>
+      </c>
+      <c r="H10" t="s">
+        <v>526</v>
+      </c>
+      <c r="I10" t="s">
+        <v>576</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3281,7 +3263,7 @@
         <v>253</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>254</v>
@@ -3289,17 +3271,17 @@
       <c r="E11" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>580</v>
+      <c r="F11" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" t="s">
+        <v>478</v>
+      </c>
+      <c r="H11" t="s">
+        <v>527</v>
+      </c>
+      <c r="I11" t="s">
+        <v>577</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="1"/>
@@ -3311,8 +3293,8 @@
       <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>672</v>
+      <c r="C12" s="11" t="s">
+        <v>668</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>49</v>
@@ -3320,17 +3302,17 @@
       <c r="E12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>581</v>
+      <c r="F12" t="s">
+        <v>425</v>
+      </c>
+      <c r="G12" t="s">
+        <v>628</v>
+      </c>
+      <c r="H12" t="s">
+        <v>528</v>
+      </c>
+      <c r="I12" t="s">
+        <v>578</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3343,7 +3325,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>56</v>
@@ -3351,17 +3333,17 @@
       <c r="E13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>426</v>
+      </c>
+      <c r="G13" t="s">
+        <v>649</v>
+      </c>
+      <c r="H13" t="s">
         <v>162</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>433</v>
+      <c r="I13" t="s">
+        <v>432</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3371,10 +3353,10 @@
         <v>151</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>379</v>
+        <v>695</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>377</v>
@@ -3382,17 +3364,17 @@
       <c r="E14" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>582</v>
+      <c r="F14" t="s">
+        <v>629</v>
+      </c>
+      <c r="G14" t="s">
+        <v>599</v>
+      </c>
+      <c r="H14" t="s">
+        <v>529</v>
+      </c>
+      <c r="I14" t="s">
+        <v>579</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3408,22 +3390,22 @@
         <v>222</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>583</v>
+      <c r="F15" t="s">
+        <v>630</v>
+      </c>
+      <c r="G15" t="s">
+        <v>481</v>
+      </c>
+      <c r="H15" t="s">
+        <v>530</v>
+      </c>
+      <c r="I15" t="s">
+        <v>580</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
@@ -3436,25 +3418,25 @@
         <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" t="s">
+        <v>427</v>
+      </c>
+      <c r="G16" t="s">
+        <v>482</v>
+      </c>
+      <c r="H16" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>584</v>
+      <c r="I16" t="s">
+        <v>581</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3475,16 +3457,16 @@
       <c r="E17" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>189</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>190</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>191</v>
       </c>
       <c r="J17" s="1"/>
@@ -3506,16 +3488,16 @@
       <c r="E18" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>206</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>207</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" t="s">
         <v>210</v>
       </c>
       <c r="J18" s="1"/>
@@ -3526,7 +3508,7 @@
         <v>147</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>198</v>
@@ -3535,18 +3517,18 @@
         <v>203</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F19" t="s">
         <v>199</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>200</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>201</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" t="s">
         <v>202</v>
       </c>
       <c r="J19" s="1"/>
@@ -3568,16 +3550,16 @@
       <c r="E20" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>215</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" t="s">
         <v>217</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" t="s">
         <v>218</v>
       </c>
       <c r="J20" s="1"/>
@@ -3599,16 +3581,16 @@
       <c r="E21" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>192</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>193</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>194</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>195</v>
       </c>
       <c r="J21" s="3"/>
@@ -3630,17 +3612,17 @@
       <c r="E22" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>585</v>
+      <c r="F22" t="s">
+        <v>642</v>
+      </c>
+      <c r="G22" t="s">
+        <v>483</v>
+      </c>
+      <c r="H22" t="s">
+        <v>479</v>
+      </c>
+      <c r="I22" t="s">
+        <v>582</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3661,16 +3643,16 @@
       <c r="E23" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" t="s">
         <v>260</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" t="s">
         <v>227</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" t="s">
         <v>261</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" t="s">
         <v>262</v>
       </c>
       <c r="J23" s="1"/>
@@ -3692,16 +3674,16 @@
       <c r="E24" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" t="s">
         <v>229</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" t="s">
         <v>272</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" t="s">
         <v>274</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" t="s">
         <v>275</v>
       </c>
       <c r="J24" s="1"/>
@@ -3723,16 +3705,16 @@
       <c r="E25" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" t="s">
         <v>230</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" t="s">
         <v>279</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" t="s">
         <v>280</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" t="s">
         <v>281</v>
       </c>
       <c r="J25" s="1"/>
@@ -3746,24 +3728,24 @@
         <v>119</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>266</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="F26" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="F26" t="s">
         <v>228</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="G26" t="s">
+        <v>625</v>
+      </c>
+      <c r="H26" t="s">
         <v>268</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" t="s">
         <v>269</v>
       </c>
       <c r="J26" s="1"/>
@@ -3786,16 +3768,16 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G27" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H27" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3814,17 +3796,17 @@
       <c r="E28" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>587</v>
+      <c r="F28" t="s">
+        <v>429</v>
+      </c>
+      <c r="G28" t="s">
+        <v>485</v>
+      </c>
+      <c r="H28" t="s">
+        <v>480</v>
+      </c>
+      <c r="I28" t="s">
+        <v>584</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3843,19 +3825,19 @@
         <v>286</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>681</v>
+        <v>676</v>
+      </c>
+      <c r="F29" t="s">
+        <v>430</v>
+      </c>
+      <c r="G29" t="s">
+        <v>486</v>
+      </c>
+      <c r="H29" t="s">
+        <v>531</v>
+      </c>
+      <c r="I29" t="s">
+        <v>677</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="1"/>
@@ -3864,29 +3846,29 @@
       <c r="A30" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="F30" t="s">
         <v>682</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="G30" t="s">
         <v>683</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="H30" t="s">
         <v>684</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="I30" t="s">
         <v>685</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>689</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
@@ -3898,7 +3880,7 @@
       <c r="B31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>141</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -3907,17 +3889,17 @@
       <c r="E31" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>588</v>
+      <c r="F31" t="s">
+        <v>431</v>
+      </c>
+      <c r="G31" t="s">
+        <v>487</v>
+      </c>
+      <c r="H31" t="s">
+        <v>653</v>
+      </c>
+      <c r="I31" t="s">
+        <v>585</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="1"/>
@@ -3930,7 +3912,7 @@
         <v>120</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>300</v>
@@ -3938,17 +3920,17 @@
       <c r="E32" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>589</v>
+      <c r="F32" t="s">
+        <v>633</v>
+      </c>
+      <c r="G32" t="s">
+        <v>631</v>
+      </c>
+      <c r="H32" t="s">
+        <v>532</v>
+      </c>
+      <c r="I32" t="s">
+        <v>586</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
@@ -3960,8 +3942,8 @@
       <c r="B33" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>691</v>
+      <c r="C33" s="12" t="s">
+        <v>687</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>82</v>
@@ -3969,17 +3951,17 @@
       <c r="E33" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>590</v>
+      <c r="F33" t="s">
+        <v>432</v>
+      </c>
+      <c r="G33" t="s">
+        <v>688</v>
+      </c>
+      <c r="H33" t="s">
+        <v>533</v>
+      </c>
+      <c r="I33" t="s">
+        <v>587</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="1"/>
@@ -4000,17 +3982,17 @@
       <c r="E34" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="H34" s="5" t="s">
+      <c r="F34" t="s">
+        <v>433</v>
+      </c>
+      <c r="G34" t="s">
+        <v>488</v>
+      </c>
+      <c r="H34" t="s">
         <v>166</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>591</v>
+      <c r="I34" t="s">
+        <v>588</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="1"/>
@@ -4031,17 +4013,17 @@
       <c r="E35" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>592</v>
+      <c r="F35" t="s">
+        <v>434</v>
+      </c>
+      <c r="G35" t="s">
+        <v>489</v>
+      </c>
+      <c r="H35" t="s">
+        <v>534</v>
+      </c>
+      <c r="I35" t="s">
+        <v>589</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4062,17 +4044,17 @@
       <c r="E36" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>593</v>
+      <c r="F36" t="s">
+        <v>435</v>
+      </c>
+      <c r="G36" t="s">
+        <v>490</v>
+      </c>
+      <c r="H36" t="s">
+        <v>535</v>
+      </c>
+      <c r="I36" t="s">
+        <v>590</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -4093,17 +4075,17 @@
       <c r="E37" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" t="s">
         <v>239</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>594</v>
+      <c r="G37" t="s">
+        <v>491</v>
+      </c>
+      <c r="H37" t="s">
+        <v>536</v>
+      </c>
+      <c r="I37" t="s">
+        <v>591</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
@@ -4124,17 +4106,17 @@
       <c r="E38" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>595</v>
+      <c r="F38" t="s">
+        <v>436</v>
+      </c>
+      <c r="G38" t="s">
+        <v>492</v>
+      </c>
+      <c r="H38" t="s">
+        <v>537</v>
+      </c>
+      <c r="I38" t="s">
+        <v>592</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="1"/>
@@ -4155,17 +4137,17 @@
       <c r="E39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>596</v>
+      <c r="F39" t="s">
+        <v>437</v>
+      </c>
+      <c r="G39" t="s">
+        <v>493</v>
+      </c>
+      <c r="H39" t="s">
+        <v>538</v>
+      </c>
+      <c r="I39" t="s">
+        <v>593</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4186,17 +4168,17 @@
       <c r="E40" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>597</v>
+      <c r="F40" t="s">
+        <v>438</v>
+      </c>
+      <c r="G40" t="s">
+        <v>494</v>
+      </c>
+      <c r="H40" t="s">
+        <v>539</v>
+      </c>
+      <c r="I40" t="s">
+        <v>594</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -4211,23 +4193,23 @@
       <c r="C41" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>666</v>
+      <c r="D41" s="11" t="s">
+        <v>662</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" t="s">
         <v>236</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>598</v>
+      <c r="G41" t="s">
+        <v>495</v>
+      </c>
+      <c r="H41" t="s">
+        <v>540</v>
+      </c>
+      <c r="I41" t="s">
+        <v>595</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
@@ -4249,45 +4231,45 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G42" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H42" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I42" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>184</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>676</v>
+      <c r="B43" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>672</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="F43" t="s">
+        <v>673</v>
+      </c>
+      <c r="G43" t="s">
+        <v>674</v>
+      </c>
+      <c r="H43" t="s">
+        <v>164</v>
+      </c>
+      <c r="I43" t="s">
         <v>675</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>679</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -4300,7 +4282,7 @@
         <v>121</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>308</v>
@@ -4308,17 +4290,17 @@
       <c r="E44" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>600</v>
+      <c r="F44" t="s">
+        <v>440</v>
+      </c>
+      <c r="G44" t="s">
+        <v>497</v>
+      </c>
+      <c r="H44" t="s">
+        <v>542</v>
+      </c>
+      <c r="I44" t="s">
+        <v>597</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="1"/>
@@ -4339,17 +4321,17 @@
       <c r="E45" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>601</v>
+      <c r="F45" t="s">
+        <v>441</v>
+      </c>
+      <c r="G45" t="s">
+        <v>498</v>
+      </c>
+      <c r="H45" t="s">
+        <v>543</v>
+      </c>
+      <c r="I45" t="s">
+        <v>598</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="1"/>
@@ -4358,8 +4340,8 @@
       <c r="A46" t="s">
         <v>184</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>665</v>
+      <c r="B46" s="12" t="s">
+        <v>661</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>375</v>
@@ -4370,16 +4352,16 @@
       <c r="E46" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="F46" t="s">
+        <v>634</v>
+      </c>
+      <c r="G46" t="s">
+        <v>499</v>
+      </c>
+      <c r="H46" t="s">
+        <v>544</v>
+      </c>
+      <c r="I46" t="s">
         <v>267</v>
       </c>
       <c r="J46" s="3"/>
@@ -4401,17 +4383,17 @@
       <c r="E47" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>602</v>
+      <c r="F47" t="s">
+        <v>442</v>
+      </c>
+      <c r="G47" t="s">
+        <v>500</v>
+      </c>
+      <c r="H47" t="s">
+        <v>545</v>
+      </c>
+      <c r="I47" t="s">
+        <v>599</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="1"/>
@@ -4424,7 +4406,7 @@
         <v>96</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>328</v>
@@ -4432,17 +4414,17 @@
       <c r="E48" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>603</v>
+      <c r="F48" t="s">
+        <v>443</v>
+      </c>
+      <c r="G48" t="s">
+        <v>501</v>
+      </c>
+      <c r="H48" t="s">
+        <v>652</v>
+      </c>
+      <c r="I48" t="s">
+        <v>600</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4451,29 +4433,29 @@
       <c r="A49" t="s">
         <v>184</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>664</v>
+      <c r="B49" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>660</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>696</v>
+        <v>659</v>
+      </c>
+      <c r="F49" t="s">
+        <v>689</v>
+      </c>
+      <c r="G49" t="s">
+        <v>690</v>
+      </c>
+      <c r="H49" t="s">
+        <v>691</v>
+      </c>
+      <c r="I49" t="s">
+        <v>692</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -4494,17 +4476,17 @@
       <c r="E50" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>604</v>
+      <c r="F50" t="s">
+        <v>444</v>
+      </c>
+      <c r="G50" t="s">
+        <v>502</v>
+      </c>
+      <c r="H50" t="s">
+        <v>546</v>
+      </c>
+      <c r="I50" t="s">
+        <v>601</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -4517,7 +4499,7 @@
         <v>130</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>332</v>
@@ -4525,17 +4507,17 @@
       <c r="E51" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>605</v>
+      <c r="F51" t="s">
+        <v>445</v>
+      </c>
+      <c r="G51" t="s">
+        <v>636</v>
+      </c>
+      <c r="H51" t="s">
+        <v>547</v>
+      </c>
+      <c r="I51" t="s">
+        <v>602</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="1"/>
@@ -4556,17 +4538,17 @@
       <c r="E52" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>606</v>
+      <c r="F52" t="s">
+        <v>446</v>
+      </c>
+      <c r="G52" t="s">
+        <v>503</v>
+      </c>
+      <c r="H52" t="s">
+        <v>548</v>
+      </c>
+      <c r="I52" t="s">
+        <v>603</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="1"/>
@@ -4581,23 +4563,23 @@
       <c r="C53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>668</v>
+      <c r="D53" s="10" t="s">
+        <v>664</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G53" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H53" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I53" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4608,7 +4590,7 @@
         <v>68</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>69</v>
@@ -4616,17 +4598,17 @@
       <c r="E54" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>608</v>
+      <c r="F54" t="s">
+        <v>448</v>
+      </c>
+      <c r="G54" t="s">
+        <v>637</v>
+      </c>
+      <c r="H54" t="s">
+        <v>550</v>
+      </c>
+      <c r="I54" t="s">
+        <v>605</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -4647,17 +4629,17 @@
       <c r="E55" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>609</v>
+      <c r="F55" t="s">
+        <v>449</v>
+      </c>
+      <c r="G55" t="s">
+        <v>505</v>
+      </c>
+      <c r="H55" t="s">
+        <v>551</v>
+      </c>
+      <c r="I55" t="s">
+        <v>606</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4678,17 +4660,17 @@
       <c r="E56" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>610</v>
+      <c r="F56" t="s">
+        <v>450</v>
+      </c>
+      <c r="G56" t="s">
+        <v>506</v>
+      </c>
+      <c r="H56" t="s">
+        <v>555</v>
+      </c>
+      <c r="I56" t="s">
+        <v>607</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="1"/>
@@ -4709,17 +4691,17 @@
       <c r="E57" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>597</v>
+      <c r="F57" t="s">
+        <v>451</v>
+      </c>
+      <c r="G57" t="s">
+        <v>507</v>
+      </c>
+      <c r="H57" t="s">
+        <v>552</v>
+      </c>
+      <c r="I57" t="s">
+        <v>594</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4734,22 +4716,22 @@
       <c r="C58" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>667</v>
+      <c r="D58" s="11" t="s">
+        <v>663</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="I58" s="5" t="s">
+      <c r="F58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G58" t="s">
+        <v>508</v>
+      </c>
+      <c r="H58" t="s">
+        <v>553</v>
+      </c>
+      <c r="I58" t="s">
         <v>185</v>
       </c>
       <c r="J58" s="1"/>
@@ -4771,17 +4753,17 @@
       <c r="E59" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>611</v>
+      <c r="F59" t="s">
+        <v>453</v>
+      </c>
+      <c r="G59" t="s">
+        <v>509</v>
+      </c>
+      <c r="H59" t="s">
+        <v>554</v>
+      </c>
+      <c r="I59" t="s">
+        <v>608</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="1"/>
@@ -4794,25 +4776,25 @@
         <v>16</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G60" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H60" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="I60" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4831,17 +4813,17 @@
       <c r="E61" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>613</v>
+      <c r="F61" t="s">
+        <v>455</v>
+      </c>
+      <c r="G61" t="s">
+        <v>510</v>
+      </c>
+      <c r="H61" t="s">
+        <v>611</v>
+      </c>
+      <c r="I61" t="s">
+        <v>610</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -4862,17 +4844,17 @@
       <c r="E62" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="F62" t="s">
+        <v>456</v>
+      </c>
+      <c r="G62" t="s">
         <v>160</v>
       </c>
-      <c r="H62" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>615</v>
+      <c r="H62" t="s">
+        <v>556</v>
+      </c>
+      <c r="I62" t="s">
+        <v>612</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4894,16 +4876,16 @@
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G63" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H63" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I63" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4922,17 +4904,17 @@
       <c r="E64" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" t="s">
         <v>235</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>617</v>
+      <c r="G64" t="s">
+        <v>512</v>
+      </c>
+      <c r="H64" t="s">
+        <v>558</v>
+      </c>
+      <c r="I64" t="s">
+        <v>614</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="1"/>
@@ -4953,17 +4935,17 @@
       <c r="E65" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>618</v>
+      <c r="F65" t="s">
+        <v>458</v>
+      </c>
+      <c r="G65" t="s">
+        <v>513</v>
+      </c>
+      <c r="H65" t="s">
+        <v>559</v>
+      </c>
+      <c r="I65" t="s">
+        <v>615</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="1"/>
@@ -4981,20 +4963,20 @@
       <c r="D66" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>669</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>619</v>
+      <c r="E66" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="F66" t="s">
+        <v>459</v>
+      </c>
+      <c r="G66" t="s">
+        <v>514</v>
+      </c>
+      <c r="H66" t="s">
+        <v>560</v>
+      </c>
+      <c r="I66" t="s">
+        <v>616</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="1"/>
@@ -5015,17 +4997,17 @@
       <c r="E67" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>620</v>
+      <c r="F67" t="s">
+        <v>460</v>
+      </c>
+      <c r="G67" t="s">
+        <v>515</v>
+      </c>
+      <c r="H67" t="s">
+        <v>561</v>
+      </c>
+      <c r="I67" t="s">
+        <v>617</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="5"/>
@@ -5038,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>17</v>
@@ -5047,16 +5029,16 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G68" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H68" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I68" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -5067,7 +5049,7 @@
         <v>37</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>38</v>
@@ -5076,16 +5058,16 @@
         <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G69" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H69" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I69" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -5104,17 +5086,17 @@
       <c r="E70" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>621</v>
+      <c r="F70" t="s">
+        <v>463</v>
+      </c>
+      <c r="G70" t="s">
+        <v>438</v>
+      </c>
+      <c r="H70" t="s">
+        <v>569</v>
+      </c>
+      <c r="I70" t="s">
+        <v>618</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -5135,17 +5117,17 @@
       <c r="E71" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>622</v>
+      <c r="F71" t="s">
+        <v>641</v>
+      </c>
+      <c r="G71" t="s">
+        <v>516</v>
+      </c>
+      <c r="H71" t="s">
+        <v>566</v>
+      </c>
+      <c r="I71" t="s">
+        <v>619</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -5167,17 +5149,17 @@
       <c r="E72" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>623</v>
+      <c r="F72" t="s">
+        <v>464</v>
+      </c>
+      <c r="G72" t="s">
+        <v>517</v>
+      </c>
+      <c r="H72" t="s">
+        <v>567</v>
+      </c>
+      <c r="I72" t="s">
+        <v>694</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="1"/>
@@ -5198,17 +5180,17 @@
       <c r="E73" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>624</v>
+      <c r="F73" t="s">
+        <v>465</v>
+      </c>
+      <c r="G73" t="s">
+        <v>518</v>
+      </c>
+      <c r="H73" t="s">
+        <v>568</v>
+      </c>
+      <c r="I73" t="s">
+        <v>620</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -5227,19 +5209,19 @@
         <v>365</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F74" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F74" t="s">
+        <v>402</v>
+      </c>
+      <c r="G74" t="s">
         <v>403</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" t="s">
         <v>404</v>
       </c>
-      <c r="H74" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>690</v>
+      <c r="I74" t="s">
+        <v>686</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="1"/>
@@ -5249,28 +5231,28 @@
         <v>146</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" t="s">
         <v>391</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" t="s">
         <v>392</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" t="s">
         <v>393</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="I75" t="s">
         <v>394</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>395</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -5291,17 +5273,17 @@
       <c r="E76" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" t="s">
+        <v>405</v>
+      </c>
+      <c r="G76" t="s">
+        <v>643</v>
+      </c>
+      <c r="H76" t="s">
         <v>406</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" t="s">
         <v>407</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -5322,17 +5304,17 @@
       <c r="E77" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" t="s">
+        <v>398</v>
+      </c>
+      <c r="G77" t="s">
         <v>399</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="H77" t="s">
         <v>400</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="I77" t="s">
         <v>401</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="1"/>
@@ -5342,10 +5324,10 @@
         <v>148</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>670</v>
+        <v>667</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>666</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>367</v>
@@ -5353,17 +5335,17 @@
       <c r="E78" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" t="s">
+        <v>395</v>
+      </c>
+      <c r="G78" t="s">
         <v>396</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="H78" t="s">
         <v>397</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>626</v>
+      <c r="I78" t="s">
+        <v>622</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="1"/>
@@ -5384,17 +5366,17 @@
       <c r="E79" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" t="s">
+        <v>408</v>
+      </c>
+      <c r="G79" t="s">
         <v>409</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" t="s">
         <v>410</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="I79" t="s">
         <v>411</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -5415,17 +5397,17 @@
       <c r="E80" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>413</v>
+      <c r="F80" t="s">
+        <v>466</v>
+      </c>
+      <c r="G80" t="s">
+        <v>519</v>
+      </c>
+      <c r="H80" t="s">
+        <v>415</v>
+      </c>
+      <c r="I80" t="s">
+        <v>412</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="1"/>
@@ -5438,7 +5420,7 @@
         <v>129</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>318</v>
@@ -5446,17 +5428,17 @@
       <c r="E81" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="F81" t="s">
+        <v>467</v>
+      </c>
+      <c r="G81" t="s">
         <v>275</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="I81" s="1" t="s">
+      <c r="H81" t="s">
         <v>414</v>
+      </c>
+      <c r="I81" t="s">
+        <v>413</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="1"/>
@@ -5564,7 +5546,7 @@
   <conditionalFormatting sqref="E90:E1048576">
     <cfRule type="duplicateValues" dxfId="25" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:I1048576">
+  <conditionalFormatting sqref="F1:I1 F82:I1048576">
     <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C4F7F2-2D3A-4924-8FCC-6CAEC0CC3574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CED02A-7D47-4287-9FFD-89833B1A73DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,21 +638,9 @@
     <t>Schleim</t>
   </si>
   <si>
-    <t>snail</t>
-  </si>
-  <si>
     <t>slime</t>
   </si>
   <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>Langsam</t>
-  </si>
-  <si>
     <t>Hai</t>
   </si>
   <si>
@@ -1184,9 +1172,6 @@
     <t>Ostern</t>
   </si>
   <si>
-    <t>Schnecke</t>
-  </si>
-  <si>
     <t>Ordner</t>
   </si>
   <si>
@@ -2009,9 +1994,6 @@
     <t>Christmas</t>
   </si>
   <si>
-    <t>Haus</t>
-  </si>
-  <si>
     <t>Radio</t>
   </si>
   <si>
@@ -2078,9 +2060,6 @@
     <t>Saft</t>
   </si>
   <si>
-    <t>Tomate</t>
-  </si>
-  <si>
     <t>Apfel</t>
   </si>
   <si>
@@ -2090,9 +2069,6 @@
     <t>juice</t>
   </si>
   <si>
-    <t>tomato</t>
-  </si>
-  <si>
     <t>apple</t>
   </si>
   <si>
@@ -2127,6 +2103,30 @@
   </si>
   <si>
     <t>Ferien</t>
+  </si>
+  <si>
+    <t>Karton</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>Wurm</t>
+  </si>
+  <si>
+    <t>Loch</t>
+  </si>
+  <si>
+    <t>Erde</t>
+  </si>
+  <si>
+    <t>worm</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>earth</t>
   </si>
 </sst>
 </file>
@@ -2921,7 +2921,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25"/>
@@ -2998,16 +2998,16 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="I2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3021,22 +3021,22 @@
         <v>91</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="5"/>
@@ -3052,22 +3052,22 @@
         <v>95</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G4" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="5"/>
@@ -3081,25 +3081,25 @@
         <v>125</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="1"/>
@@ -3121,16 +3121,16 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G6" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H6" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="I6" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3141,7 +3141,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>27</v>
@@ -3150,16 +3150,16 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="H7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="I7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3170,25 +3170,25 @@
         <v>110</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H8" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="I8" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3201,25 +3201,25 @@
         <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H9" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="I9" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3232,25 +3232,25 @@
         <v>114</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G10" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H10" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="I10" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3260,28 +3260,28 @@
         <v>150</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F11" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H11" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="I11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="1"/>
@@ -3294,7 +3294,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>49</v>
@@ -3303,16 +3303,16 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G12" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H12" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="I12" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3325,7 +3325,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>56</v>
@@ -3334,16 +3334,16 @@
         <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G13" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H13" t="s">
         <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3353,28 +3353,28 @@
         <v>151</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F14" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G14" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H14" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I14" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3384,28 +3384,28 @@
         <v>151</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F15" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G15" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H15" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="I15" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
@@ -3418,25 +3418,25 @@
         <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F16" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G16" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H16" t="s">
         <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3455,7 +3455,7 @@
         <v>116</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F17" t="s">
         <v>188</v>
@@ -3477,28 +3477,28 @@
         <v>147</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="F18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" t="s">
         <v>206</v>
-      </c>
-      <c r="G18" t="s">
-        <v>209</v>
-      </c>
-      <c r="H18" t="s">
-        <v>207</v>
-      </c>
-      <c r="I18" t="s">
-        <v>210</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3508,28 +3508,28 @@
         <v>147</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>381</v>
+        <v>690</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>203</v>
+        <v>691</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="F19" t="s">
+        <v>693</v>
+      </c>
+      <c r="G19" t="s">
         <v>199</v>
       </c>
-      <c r="G19" t="s">
-        <v>200</v>
-      </c>
       <c r="H19" t="s">
-        <v>201</v>
+        <v>694</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>695</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3539,28 +3539,28 @@
         <v>147</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="I20" t="s">
         <v>214</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" t="s">
-        <v>217</v>
-      </c>
-      <c r="I20" t="s">
-        <v>218</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="5"/>
@@ -3576,10 +3576,10 @@
         <v>197</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F21" t="s">
         <v>192</v>
@@ -3601,28 +3601,28 @@
         <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F22" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G22" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H22" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="I22" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3632,28 +3632,28 @@
         <v>152</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" t="s">
+        <v>256</v>
+      </c>
+      <c r="G23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" t="s">
         <v>257</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="I23" t="s">
         <v>258</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" t="s">
-        <v>261</v>
-      </c>
-      <c r="I23" t="s">
-        <v>262</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3663,28 +3663,28 @@
         <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>268</v>
+      </c>
+      <c r="H24" t="s">
         <v>270</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="I24" t="s">
         <v>271</v>
-      </c>
-      <c r="F24" t="s">
-        <v>229</v>
-      </c>
-      <c r="G24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H24" t="s">
-        <v>274</v>
-      </c>
-      <c r="I24" t="s">
-        <v>275</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3694,28 +3694,28 @@
         <v>152</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" t="s">
         <v>226</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="G25" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" t="s">
         <v>276</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="I25" t="s">
         <v>277</v>
-      </c>
-      <c r="F25" t="s">
-        <v>230</v>
-      </c>
-      <c r="G25" t="s">
-        <v>279</v>
-      </c>
-      <c r="H25" t="s">
-        <v>280</v>
-      </c>
-      <c r="I25" t="s">
-        <v>281</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3728,25 +3728,25 @@
         <v>119</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3768,16 +3768,16 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G27" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H27" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="I27" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3785,28 +3785,28 @@
         <v>185</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F28" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G28" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H28" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I28" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3822,22 +3822,22 @@
         <v>136</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F29" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G29" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H29" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I29" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="1"/>
@@ -3847,28 +3847,28 @@
         <v>185</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F30" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G30" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="H30" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="I30" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
@@ -3884,22 +3884,22 @@
         <v>141</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F31" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G31" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H31" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="I31" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="1"/>
@@ -3912,25 +3912,25 @@
         <v>120</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F32" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G32" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H32" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="I32" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
@@ -3943,25 +3943,25 @@
         <v>83</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F33" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G33" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="H33" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="I33" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="1"/>
@@ -3971,28 +3971,28 @@
         <v>149</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>175</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F34" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G34" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H34" t="s">
         <v>166</v>
       </c>
       <c r="I34" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="1"/>
@@ -4002,28 +4002,28 @@
         <v>149</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F35" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G35" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H35" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I35" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4033,28 +4033,28 @@
         <v>149</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F36" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H36" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="I36" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -4064,28 +4064,28 @@
         <v>149</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G37" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H37" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="I37" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
@@ -4098,25 +4098,25 @@
         <v>126</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>127</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F38" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G38" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H38" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="I38" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="1"/>
@@ -4138,16 +4138,16 @@
         <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G39" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H39" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I39" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4160,25 +4160,25 @@
         <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G40" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H40" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="I40" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -4188,28 +4188,28 @@
         <v>149</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G41" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H41" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I41" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
@@ -4231,16 +4231,16 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G42" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H42" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I42" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4248,28 +4248,28 @@
         <v>184</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F43" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G43" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="H43" t="s">
         <v>164</v>
       </c>
       <c r="I43" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -4282,25 +4282,25 @@
         <v>121</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>122</v>
       </c>
       <c r="F44" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G44" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H44" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I44" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="1"/>
@@ -4316,22 +4316,22 @@
         <v>124</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F45" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G45" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H45" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="I45" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="1"/>
@@ -4341,28 +4341,28 @@
         <v>184</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F46" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G46" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H46" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="I46" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="1"/>
@@ -4372,28 +4372,28 @@
         <v>184</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F47" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G47" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H47" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I47" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="1"/>
@@ -4406,25 +4406,25 @@
         <v>96</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F48" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G48" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H48" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="I48" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4434,28 +4434,28 @@
         <v>184</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F49" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="G49" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="H49" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="I49" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -4471,22 +4471,22 @@
         <v>104</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F50" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G50" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H50" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="I50" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -4499,25 +4499,25 @@
         <v>130</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F51" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G51" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="H51" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="I51" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="1"/>
@@ -4533,22 +4533,22 @@
         <v>132</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F52" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G52" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H52" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I52" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="1"/>
@@ -4564,22 +4564,22 @@
         <v>15</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G53" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H53" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="I53" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4590,7 +4590,7 @@
         <v>68</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>69</v>
@@ -4599,16 +4599,16 @@
         <v>70</v>
       </c>
       <c r="F54" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G54" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H54" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I54" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -4624,22 +4624,22 @@
         <v>106</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F55" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G55" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H55" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I55" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4649,28 +4649,28 @@
         <v>184</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F56" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G56" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H56" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I56" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="1"/>
@@ -4683,25 +4683,25 @@
         <v>107</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F57" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G57" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H57" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I57" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4717,19 +4717,19 @@
         <v>109</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F58" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G58" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H58" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="I58" t="s">
         <v>185</v>
@@ -4745,25 +4745,25 @@
         <v>139</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F59" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G59" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H59" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="I59" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="1"/>
@@ -4776,25 +4776,25 @@
         <v>16</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G60" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H60" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="I60" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4805,25 +4805,25 @@
         <v>117</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F61" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G61" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H61" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="I61" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -4842,19 +4842,19 @@
         <v>89</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F62" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G62" t="s">
         <v>160</v>
       </c>
       <c r="H62" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="I62" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4876,16 +4876,16 @@
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G63" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H63" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="I63" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4893,28 +4893,28 @@
         <v>183</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F64" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G64" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H64" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I64" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="1"/>
@@ -4924,28 +4924,28 @@
         <v>183</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F65" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G65" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H65" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="I65" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="1"/>
@@ -4955,28 +4955,28 @@
         <v>183</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F66" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G66" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H66" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I66" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="1"/>
@@ -4992,22 +4992,22 @@
         <v>86</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F67" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G67" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H67" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="I67" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="5"/>
@@ -5020,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>17</v>
@@ -5029,16 +5029,16 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G68" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H68" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="I68" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -5049,7 +5049,7 @@
         <v>37</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>38</v>
@@ -5058,16 +5058,16 @@
         <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G69" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H69" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I69" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -5087,16 +5087,16 @@
         <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G70" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I70" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -5118,16 +5118,16 @@
         <v>54</v>
       </c>
       <c r="F71" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G71" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H71" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="I71" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -5138,28 +5138,28 @@
         <v>146</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G72" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H72" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="I72" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="1"/>
@@ -5172,25 +5172,25 @@
         <v>97</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F73" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G73" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H73" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I73" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -5200,28 +5200,28 @@
         <v>146</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F74" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G74" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H74" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I74" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="1"/>
@@ -5231,28 +5231,28 @@
         <v>146</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F75" t="s">
+        <v>386</v>
+      </c>
+      <c r="G75" t="s">
         <v>387</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="H75" t="s">
         <v>388</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="I75" t="s">
         <v>389</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F75" t="s">
-        <v>391</v>
-      </c>
-      <c r="G75" t="s">
-        <v>392</v>
-      </c>
-      <c r="H75" t="s">
-        <v>393</v>
-      </c>
-      <c r="I75" t="s">
-        <v>394</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -5265,7 +5265,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>72</v>
@@ -5274,16 +5274,16 @@
         <v>73</v>
       </c>
       <c r="F76" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G76" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H76" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I76" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -5293,28 +5293,28 @@
         <v>148</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F77" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G77" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H77" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I77" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="1"/>
@@ -5324,28 +5324,28 @@
         <v>148</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F78" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G78" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H78" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I78" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="1"/>
@@ -5367,16 +5367,16 @@
         <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G79" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H79" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="I79" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -5386,28 +5386,28 @@
         <v>148</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F80" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G80" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H80" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="I80" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="1"/>
@@ -5420,25 +5420,25 @@
         <v>129</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F81" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G81" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H81" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I81" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="1"/>
